--- a/temp_traits_qr.xlsx
+++ b/temp_traits_qr.xlsx
@@ -1,29 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D7DB27B-8DFD-403A-B7B4-6BAEE858E9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF0DE2-C0B4-45D6-9E2B-17BF0F973BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-3795" yWindow="-21720" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="qr_trait" sheetId="7" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">qr_trait!$A$1:$I$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">qr_trait!$A$1:$I$80</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="461" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="164">
   <si>
     <t>trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -173,9 +173,6 @@
     <t>Yellow</t>
   </si>
   <si>
-    <t>Greenish-yellow</t>
-  </si>
-  <si>
     <t>Light-brown</t>
   </si>
   <si>
@@ -767,17 +764,6 @@
         <family val="2"/>
       </rPr>
       <t>黄</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>青黄</t>
     </r>
   </si>
   <si>
@@ -1060,6 +1046,38 @@
   </si>
   <si>
     <t>高感</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Black</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>绿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Green</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>褐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Brown</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bicolor</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1455,13 +1473,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D197314-2881-4497-947D-67555154D6DB}">
-  <dimension ref="A1:I114"/>
+  <dimension ref="A1:I116"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B19" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G118" sqref="G118"/>
+      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1486,13 +1504,13 @@
         <v>0</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
@@ -1509,21 +1527,21 @@
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
-        <f t="shared" ref="A2:A33" si="0">G2&amp;"_"&amp;H2&amp;"_"&amp;F2</f>
+        <f>G2&amp;"_"&amp;H2&amp;"_"&amp;F2</f>
         <v>3_1_Highly-resistant</v>
       </c>
       <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="2" t="str">
+        <f>H2&amp;"-"&amp;D2</f>
+        <v>1-高抗</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="2" t="str">
-        <f t="shared" ref="C2:C33" si="1">H2&amp;"-"&amp;D2</f>
-        <v>1-高抗</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="E2" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>24</v>
@@ -1540,21 +1558,21 @@
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G3&amp;"_"&amp;H3&amp;"_"&amp;F3</f>
         <v>3_3_Resistant</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H3&amp;"-"&amp;D3</f>
         <v>3-抗</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>25</v>
@@ -1571,21 +1589,21 @@
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G4&amp;"_"&amp;H4&amp;"_"&amp;F4</f>
         <v>3_99_Segregating</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H4&amp;"-"&amp;D4</f>
         <v>99-分离</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E4" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>26</v>
@@ -1602,21 +1620,21 @@
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G5&amp;"_"&amp;H5&amp;"_"&amp;F5</f>
         <v>3_5_Moderately-resistant</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H5&amp;"-"&amp;D5</f>
         <v>5-中抗</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>27</v>
@@ -1633,21 +1651,21 @@
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G6&amp;"_"&amp;H6&amp;"_"&amp;F6</f>
         <v>3_7_Not-resistant</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H6&amp;"-"&amp;D6</f>
         <v>7-不抗</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>28</v>
@@ -1664,21 +1682,21 @@
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G7&amp;"_"&amp;H7&amp;"_"&amp;F7</f>
         <v>8_1_White</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C7" s="2" t="str">
+        <f>H7&amp;"-"&amp;D7</f>
+        <v>1-白</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>1-白</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>61</v>
-      </c>
       <c r="E7" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>7</v>
@@ -1695,21 +1713,21 @@
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G8&amp;"_"&amp;H8&amp;"_"&amp;F8</f>
         <v>8_2_Purple</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H8&amp;"-"&amp;D8</f>
         <v>2-紫</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>8</v>
@@ -1726,21 +1744,21 @@
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G9&amp;"_"&amp;H9&amp;"_"&amp;F9</f>
         <v>8_99_Segregating</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H9&amp;"-"&amp;D9</f>
         <v>99-分离</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>26</v>
@@ -1757,21 +1775,21 @@
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G10&amp;"_"&amp;H10&amp;"_"&amp;F10</f>
         <v>9_1_White</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H10&amp;"-"&amp;D10</f>
         <v>1-白</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>7</v>
@@ -1788,21 +1806,21 @@
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G11&amp;"_"&amp;H11&amp;"_"&amp;F11</f>
         <v>9_2_Purple</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H11&amp;"-"&amp;D11</f>
         <v>2-紫</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>8</v>
@@ -1819,21 +1837,21 @@
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G12&amp;"_"&amp;H12&amp;"_"&amp;F12</f>
         <v>9_99_Segregating</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H12&amp;"-"&amp;D12</f>
         <v>99-分离</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>26</v>
@@ -1850,21 +1868,21 @@
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G13&amp;"_"&amp;H13&amp;"_"&amp;F13</f>
         <v>10_2_Excellent</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="2" t="str">
+        <f>H13&amp;"-"&amp;D13</f>
+        <v>2-优</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>2-优</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>65</v>
-      </c>
       <c r="E13" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>9</v>
@@ -1881,21 +1899,21 @@
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G14&amp;"_"&amp;H14&amp;"_"&amp;F14</f>
         <v>10_1_Good</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H14&amp;"-"&amp;D14</f>
         <v>1-良</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>10</v>
@@ -1912,21 +1930,21 @@
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G15&amp;"_"&amp;H15&amp;"_"&amp;F15</f>
         <v>10_0_Fair</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H15&amp;"-"&amp;D15</f>
         <v>0-中</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>29</v>
@@ -1943,21 +1961,21 @@
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G16&amp;"_"&amp;H16&amp;"_"&amp;F16</f>
         <v>10_-1_Poor</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H16&amp;"-"&amp;D16</f>
         <v>-1-差</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E16" s="2" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>11</v>
@@ -1974,21 +1992,21 @@
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G17&amp;"_"&amp;H17&amp;"_"&amp;F17</f>
         <v>11_1_White</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H17&amp;"-"&amp;D17</f>
         <v>1-白</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>7</v>
@@ -2005,21 +2023,21 @@
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G18&amp;"_"&amp;H18&amp;"_"&amp;F18</f>
         <v>11_2_Purple</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H18&amp;"-"&amp;D18</f>
         <v>2-紫</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>8</v>
@@ -2036,21 +2054,21 @@
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G19&amp;"_"&amp;H19&amp;"_"&amp;F19</f>
         <v>11_99_Segregating</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H19&amp;"-"&amp;D19</f>
         <v>99-分离</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>26</v>
@@ -2067,21 +2085,21 @@
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G20&amp;"_"&amp;H20&amp;"_"&amp;F20</f>
         <v>12_2_Excellent</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H20&amp;"-"&amp;D20</f>
         <v>2-优</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>9</v>
@@ -2098,21 +2116,21 @@
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G21&amp;"_"&amp;H21&amp;"_"&amp;F21</f>
         <v>12_1_Good</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H21&amp;"-"&amp;D21</f>
         <v>1-良</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E21" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>10</v>
@@ -2129,21 +2147,21 @@
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G22&amp;"_"&amp;H22&amp;"_"&amp;F22</f>
         <v>12_0_Fair</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H22&amp;"-"&amp;D22</f>
         <v>0-中</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>29</v>
@@ -2160,21 +2178,21 @@
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G23&amp;"_"&amp;H23&amp;"_"&amp;F23</f>
         <v>12_-1_Poor</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H23&amp;"-"&amp;D23</f>
         <v>-1-差</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>11</v>
@@ -2191,21 +2209,21 @@
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G24&amp;"_"&amp;H24&amp;"_"&amp;F24</f>
         <v>13_0_Immune</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="2" t="str">
+        <f>H24&amp;"-"&amp;D24</f>
+        <v>0-免疫</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C24" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>0-免疫</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>72</v>
-      </c>
       <c r="E24" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>30</v>
@@ -2222,21 +2240,21 @@
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G25&amp;"_"&amp;H25&amp;"_"&amp;F25</f>
         <v>13_1_Highly-resistant</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H25&amp;"-"&amp;D25</f>
         <v>1-高抗</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>24</v>
@@ -2253,21 +2271,21 @@
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G26&amp;"_"&amp;H26&amp;"_"&amp;F26</f>
         <v>13_3_Resistant</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H26&amp;"-"&amp;D26</f>
         <v>3-抗</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>25</v>
@@ -2284,21 +2302,21 @@
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G27&amp;"_"&amp;H27&amp;"_"&amp;F27</f>
         <v>13_7_Susceptible</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H27&amp;"-"&amp;D27</f>
         <v>7-感</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>31</v>
@@ -2315,21 +2333,21 @@
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G28&amp;"_"&amp;H28&amp;"_"&amp;F28</f>
         <v>13_9_Highly-susceptible</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H28&amp;"-"&amp;D28</f>
         <v>9-高感</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>32</v>
@@ -2346,21 +2364,21 @@
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G29&amp;"_"&amp;H29&amp;"_"&amp;F29</f>
         <v>14_0_Immune</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H29&amp;"-"&amp;D29</f>
         <v>0-免疫</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E29" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>30</v>
@@ -2377,21 +2395,21 @@
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G30&amp;"_"&amp;H30&amp;"_"&amp;F30</f>
         <v>14_1_Highly-resistant</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H30&amp;"-"&amp;D30</f>
         <v>1-高抗</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>24</v>
@@ -2408,21 +2426,21 @@
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G31&amp;"_"&amp;H31&amp;"_"&amp;F31</f>
         <v>14_3_Resistant</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H31&amp;"-"&amp;D31</f>
         <v>3-抗</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>25</v>
@@ -2439,21 +2457,21 @@
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G32&amp;"_"&amp;H32&amp;"_"&amp;F32</f>
         <v>14_7_Susceptible</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H32&amp;"-"&amp;D32</f>
         <v>7-感</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="E32" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>31</v>
@@ -2470,21 +2488,21 @@
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>G33&amp;"_"&amp;H33&amp;"_"&amp;F33</f>
         <v>14_9_Highly-susceptible</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f>H33&amp;"-"&amp;D33</f>
         <v>9-高感</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="E33" s="2" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>32</v>
@@ -2501,21 +2519,21 @@
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
-        <f t="shared" ref="A34:A65" si="2">G34&amp;"_"&amp;H34&amp;"_"&amp;F34</f>
+        <f>G34&amp;"_"&amp;H34&amp;"_"&amp;F34</f>
         <v>15_1_No-lodging</v>
       </c>
       <c r="B34" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" s="2" t="str">
+        <f>H34&amp;"-"&amp;D34</f>
+        <v>1-不倒</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C34" s="2" t="str">
-        <f t="shared" ref="C34:C65" si="3">H34&amp;"-"&amp;D34</f>
-        <v>1-不倒</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="E34" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>33</v>
@@ -2532,21 +2550,21 @@
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G35&amp;"_"&amp;H35&amp;"_"&amp;F35</f>
         <v>15_3_Slight-lodging</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H35&amp;"-"&amp;D35</f>
         <v>3-轻倒</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E35" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>34</v>
@@ -2563,21 +2581,21 @@
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G36&amp;"_"&amp;H36&amp;"_"&amp;F36</f>
         <v>15_5_Moderate-lodging</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H36&amp;"-"&amp;D36</f>
         <v>5-中倒</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E36" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>35</v>
@@ -2594,21 +2612,21 @@
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G37&amp;"_"&amp;H37&amp;"_"&amp;F37</f>
         <v>15_7_Severe-lodging</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H37&amp;"-"&amp;D37</f>
         <v>7-重倒</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E37" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>36</v>
@@ -2625,21 +2643,21 @@
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G38&amp;"_"&amp;H38&amp;"_"&amp;F38</f>
         <v>15_9_Very-severe-lodging</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H38&amp;"-"&amp;D38</f>
         <v>9-严重倒</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E38" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>37</v>
@@ -2656,21 +2674,21 @@
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G39&amp;"_"&amp;H39&amp;"_"&amp;F39</f>
         <v>16_2_Excellent</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H39&amp;"-"&amp;D39</f>
         <v>2-优</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>9</v>
@@ -2687,21 +2705,21 @@
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G40&amp;"_"&amp;H40&amp;"_"&amp;F40</f>
         <v>16_1_Good</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H40&amp;"-"&amp;D40</f>
         <v>1-良</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>10</v>
@@ -2718,21 +2736,21 @@
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G41&amp;"_"&amp;H41&amp;"_"&amp;F41</f>
         <v>16_0_Fair</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H41&amp;"-"&amp;D41</f>
         <v>0-中</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>29</v>
@@ -2749,21 +2767,21 @@
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G42&amp;"_"&amp;H42&amp;"_"&amp;F42</f>
         <v>16_-1_Poor</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H42&amp;"-"&amp;D42</f>
         <v>-1-差</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>11</v>
@@ -2780,21 +2798,21 @@
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G43&amp;"_"&amp;H43&amp;"_"&amp;F43</f>
         <v>18_2_Excellent</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H43&amp;"-"&amp;D43</f>
         <v>2-优</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>9</v>
@@ -2811,21 +2829,21 @@
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G44&amp;"_"&amp;H44&amp;"_"&amp;F44</f>
         <v>18_1_Good</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H44&amp;"-"&amp;D44</f>
         <v>1-良</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>10</v>
@@ -2842,21 +2860,21 @@
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G45&amp;"_"&amp;H45&amp;"_"&amp;F45</f>
         <v>18_0_Fair</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H45&amp;"-"&amp;D45</f>
         <v>0-中</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>29</v>
@@ -2873,21 +2891,21 @@
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G46&amp;"_"&amp;H46&amp;"_"&amp;F46</f>
         <v>18_-1_Poor</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H46&amp;"-"&amp;D46</f>
         <v>-1-差</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>11</v>
@@ -2904,21 +2922,21 @@
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G47&amp;"_"&amp;H47&amp;"_"&amp;F47</f>
         <v>19_3_Indeterminate</v>
       </c>
       <c r="B47" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="2" t="str">
+        <f>H47&amp;"-"&amp;D47</f>
+        <v>3-无限</v>
+      </c>
+      <c r="D47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="C47" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>3-无限</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>85</v>
-      </c>
       <c r="E47" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>38</v>
@@ -2935,21 +2953,21 @@
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G48&amp;"_"&amp;H48&amp;"_"&amp;F48</f>
         <v>19_5_Semi-determinate</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H48&amp;"-"&amp;D48</f>
         <v>5-亚有限</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>39</v>
@@ -2966,21 +2984,21 @@
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G49&amp;"_"&amp;H49&amp;"_"&amp;F49</f>
         <v>19_7_Determinate</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H49&amp;"-"&amp;D49</f>
         <v>7-有限</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E49" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>40</v>
@@ -2997,21 +3015,21 @@
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G50&amp;"_"&amp;H50&amp;"_"&amp;F50</f>
         <v>19_99_Segregating</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H50&amp;"-"&amp;D50</f>
         <v>99-分离</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>26</v>
@@ -3028,21 +3046,21 @@
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G51&amp;"_"&amp;H51&amp;"_"&amp;F51</f>
         <v>20_1_Gray</v>
       </c>
       <c r="B51" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C51" s="2" t="str">
+        <f>H51&amp;"-"&amp;D51</f>
+        <v>1-灰</v>
+      </c>
+      <c r="D51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="C51" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1-灰</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>89</v>
-      </c>
       <c r="E51" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>12</v>
@@ -3059,21 +3077,21 @@
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G52&amp;"_"&amp;H52&amp;"_"&amp;F52</f>
         <v>20_2_Brown</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H52&amp;"-"&amp;D52</f>
         <v>2-棕</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>13</v>
@@ -3090,21 +3108,21 @@
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G53&amp;"_"&amp;H53&amp;"_"&amp;F53</f>
         <v>20_99_Segregating</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H53&amp;"-"&amp;D53</f>
         <v>99-分离</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>26</v>
@@ -3121,21 +3139,21 @@
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G54&amp;"_"&amp;H54&amp;"_"&amp;F54</f>
         <v>21_1_Gray-brown</v>
       </c>
       <c r="B54" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C54" s="2" t="str">
+        <f>H54&amp;"-"&amp;D54</f>
+        <v>1-灰褐</v>
+      </c>
+      <c r="D54" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C54" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1-灰褐</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>92</v>
-      </c>
       <c r="E54" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>14</v>
@@ -3152,21 +3170,21 @@
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G55&amp;"_"&amp;H55&amp;"_"&amp;F55</f>
         <v>21_2_Yellow-brown</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H55&amp;"-"&amp;D55</f>
         <v>2-黄褐</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>15</v>
@@ -3183,21 +3201,21 @@
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G56&amp;"_"&amp;H56&amp;"_"&amp;F56</f>
         <v>21_3_Brown</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H56&amp;"-"&amp;D56</f>
         <v>3-褐</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>13</v>
@@ -3214,21 +3232,21 @@
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G57&amp;"_"&amp;H57&amp;"_"&amp;F57</f>
         <v>21_4_Dark-brown</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H57&amp;"-"&amp;D57</f>
         <v>4-深褐</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E57" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>41</v>
@@ -3245,21 +3263,21 @@
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G58&amp;"_"&amp;H58&amp;"_"&amp;F58</f>
         <v>21_5_Black</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H58&amp;"-"&amp;D58</f>
         <v>5-黑</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>16</v>
@@ -3276,21 +3294,21 @@
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G59&amp;"_"&amp;H59&amp;"_"&amp;F59</f>
         <v>21_99_Segregating</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H59&amp;"-"&amp;D59</f>
         <v>99-分离</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>26</v>
@@ -3307,21 +3325,21 @@
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G60&amp;"_"&amp;H60&amp;"_"&amp;F60</f>
         <v>30_1_Round</v>
       </c>
       <c r="B60" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C60" s="2" t="str">
+        <f>H60&amp;"-"&amp;D60</f>
+        <v>1-圆</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="C60" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>1-圆</v>
-      </c>
-      <c r="D60" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E60" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>17</v>
@@ -3338,21 +3356,21 @@
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G61&amp;"_"&amp;H61&amp;"_"&amp;F61</f>
         <v>30_2_Flattened-round</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H61&amp;"-"&amp;D61</f>
         <v>2-扁圆</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>42</v>
@@ -3369,21 +3387,21 @@
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G62&amp;"_"&amp;H62&amp;"_"&amp;F62</f>
         <v>30_3_Oval</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H62&amp;"-"&amp;D62</f>
         <v>3-椭圆</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>18</v>
@@ -3400,21 +3418,21 @@
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G63&amp;"_"&amp;H63&amp;"_"&amp;F63</f>
         <v>30_4_Flattened-oval</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H63&amp;"-"&amp;D63</f>
         <v>4-扁椭圆</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E63" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>43</v>
@@ -3431,21 +3449,21 @@
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G64&amp;"_"&amp;H64&amp;"_"&amp;F64</f>
         <v>30_5_Long-oval</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H64&amp;"-"&amp;D64</f>
         <v>5-长椭圆</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E64" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>44</v>
@@ -3462,21 +3480,21 @@
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
-        <f t="shared" si="2"/>
+        <f>G65&amp;"_"&amp;H65&amp;"_"&amp;F65</f>
         <v>30_6_Kidney</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f t="shared" si="3"/>
+        <f>H65&amp;"-"&amp;D65</f>
         <v>6-肾</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>45</v>
@@ -3493,21 +3511,21 @@
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
-        <f t="shared" ref="A66:A104" si="4">G66&amp;"_"&amp;H66&amp;"_"&amp;F66</f>
+        <f>G66&amp;"_"&amp;H66&amp;"_"&amp;F66</f>
         <v>30_99_Segregating</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f t="shared" ref="C66:C97" si="5">H66&amp;"-"&amp;D66</f>
+        <f>H66&amp;"-"&amp;D66</f>
         <v>99-分离</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>26</v>
@@ -3524,21 +3542,21 @@
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
-        <f t="shared" si="4"/>
+        <f>G67&amp;"_"&amp;H67&amp;"_"&amp;F67</f>
         <v>31_1_Yellow</v>
       </c>
       <c r="B67" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>H67&amp;"-"&amp;D67</f>
+        <v>1-黄</v>
+      </c>
+      <c r="D67" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="C67" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-黄</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>105</v>
-      </c>
       <c r="E67" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>46</v>
@@ -3555,24 +3573,24 @@
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>31_2_Black</v>
+        <f>G68&amp;"_"&amp;H68&amp;"_"&amp;F68</f>
+        <v>31_2_Green</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-黑</v>
-      </c>
-      <c r="D68" s="2" t="s">
-        <v>96</v>
+        <f>H68&amp;"-"&amp;D68</f>
+        <v>2-绿</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>157</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>16</v>
+        <v>158</v>
       </c>
       <c r="G68" s="2">
         <v>31</v>
@@ -3586,24 +3604,24 @@
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>31_3_Greenish-yellow</v>
+        <f>G69&amp;"_"&amp;H69&amp;"_"&amp;F69</f>
+        <v>31_3_Black</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3-青黄</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>106</v>
+        <f>H69&amp;"-"&amp;D69</f>
+        <v>3-黑</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>159</v>
       </c>
       <c r="E69" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>47</v>
+        <v>156</v>
       </c>
       <c r="G69" s="2">
         <v>31</v>
@@ -3617,30 +3635,30 @@
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>31_99_Segregating</v>
+        <f>G70&amp;"_"&amp;H70&amp;"_"&amp;F70</f>
+        <v>31_4_Brown</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>99-分离</v>
+        <f>H70&amp;"-"&amp;D70</f>
+        <v>4-褐</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E70" s="5" t="s">
-        <v>139</v>
+        <v>160</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>26</v>
+        <v>161</v>
       </c>
       <c r="G70" s="2">
         <v>31</v>
       </c>
       <c r="H70" s="2">
-        <v>99</v>
+        <v>4</v>
       </c>
       <c r="I70" s="2">
         <v>69</v>
@@ -3648,123 +3666,123 @@
     </row>
     <row r="71" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>31_99_Segregating</v>
+        <f>G71&amp;"_"&amp;H71&amp;"_"&amp;F71</f>
+        <v>31_5_Bicolor</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>99-分离</v>
+        <f>H71&amp;"-"&amp;D71</f>
+        <v>5-双色</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>121</v>
-      </c>
-      <c r="E71" s="5" t="s">
-        <v>140</v>
+        <v>162</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>26</v>
+        <v>163</v>
       </c>
       <c r="G71" s="2">
         <v>31</v>
       </c>
       <c r="H71" s="2">
-        <v>99</v>
+        <v>5</v>
       </c>
       <c r="I71" s="2">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>32_1_Yellow</v>
+        <f>G72&amp;"_"&amp;H72&amp;"_"&amp;F72</f>
+        <v>31_99_Segregating</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-黄</v>
-      </c>
-      <c r="D72" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E72" s="2" t="s">
-        <v>140</v>
+        <f>H72&amp;"-"&amp;D72</f>
+        <v>99-分离</v>
+      </c>
+      <c r="D72" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E72" s="5" t="s">
+        <v>137</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="G72" s="2">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H72" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I72" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>32_2_Green</v>
+        <f>G73&amp;"_"&amp;H73&amp;"_"&amp;F73</f>
+        <v>32_1_Yellow</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-绿</v>
+        <f>H73&amp;"-"&amp;D73</f>
+        <v>1-黄</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="E73" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>19</v>
+        <v>46</v>
       </c>
       <c r="G73" s="2">
         <v>32</v>
       </c>
       <c r="H73" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I73" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_1_Yellow</v>
+        <f>G74&amp;"_"&amp;H74&amp;"_"&amp;F74</f>
+        <v>32_2_Green</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-黄</v>
+        <f>H74&amp;"-"&amp;D74</f>
+        <v>2-绿</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="E74" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="G74" s="2">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H74" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I74" s="2">
         <v>73</v>
@@ -3772,30 +3790,30 @@
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_2_Light-brown</v>
+        <f>G75&amp;"_"&amp;H75&amp;"_"&amp;F75</f>
+        <v>31_99_Segregating</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-淡褐</v>
-      </c>
-      <c r="D75" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>141</v>
+        <f>H75&amp;"-"&amp;D75</f>
+        <v>99-分离</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="E75" s="5" t="s">
+        <v>138</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="G75" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H75" s="2">
-        <v>2</v>
+        <v>99</v>
       </c>
       <c r="I75" s="2">
         <v>74</v>
@@ -3803,30 +3821,30 @@
     </row>
     <row r="76" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_3_Brown</v>
+        <f>G76&amp;"_"&amp;H76&amp;"_"&amp;F76</f>
+        <v>33_1_Yellow</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3-褐</v>
+        <f>H76&amp;"-"&amp;D76</f>
+        <v>1-黄</v>
       </c>
       <c r="D76" s="2" t="s">
-        <v>94</v>
+        <v>104</v>
       </c>
       <c r="E76" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="G76" s="2">
         <v>33</v>
       </c>
       <c r="H76" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I76" s="2">
         <v>75</v>
@@ -3834,30 +3852,30 @@
     </row>
     <row r="77" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_4_Dark-brown</v>
+        <f>G77&amp;"_"&amp;H77&amp;"_"&amp;F77</f>
+        <v>33_2_Light-brown</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>4-深褐</v>
+        <f>H77&amp;"-"&amp;D77</f>
+        <v>2-淡褐</v>
       </c>
       <c r="D77" s="2" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="E77" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="G77" s="2">
         <v>33</v>
       </c>
       <c r="H77" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I77" s="2">
         <v>76</v>
@@ -3865,30 +3883,30 @@
     </row>
     <row r="78" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_5_Blue</v>
+        <f>G78&amp;"_"&amp;H78&amp;"_"&amp;F78</f>
+        <v>33_3_Brown</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>5-蓝</v>
+        <f>H78&amp;"-"&amp;D78</f>
+        <v>3-褐</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>111</v>
+        <v>93</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="G78" s="2">
         <v>33</v>
       </c>
       <c r="H78" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="I78" s="2">
         <v>77</v>
@@ -3896,30 +3914,30 @@
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_6_Light-black</v>
+        <f>G79&amp;"_"&amp;H79&amp;"_"&amp;F79</f>
+        <v>33_4_Dark-brown</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>6-淡黑</v>
+        <f>H79&amp;"-"&amp;D79</f>
+        <v>4-深褐</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>112</v>
+        <v>94</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="G79" s="2">
         <v>33</v>
       </c>
       <c r="H79" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="I79" s="2">
         <v>78</v>
@@ -3927,30 +3945,30 @@
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_7_Black</v>
+        <f>G80&amp;"_"&amp;H80&amp;"_"&amp;F80</f>
+        <v>33_5_Blue</v>
       </c>
       <c r="B80" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="2" t="str">
+        <f>H80&amp;"-"&amp;D80</f>
+        <v>5-蓝</v>
+      </c>
+      <c r="D80" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>7-黑</v>
-      </c>
-      <c r="D80" s="2" t="s">
-        <v>96</v>
-      </c>
       <c r="E80" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G80" s="2">
         <v>33</v>
       </c>
       <c r="H80" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="I80" s="2">
         <v>79</v>
@@ -3958,30 +3976,30 @@
     </row>
     <row r="81" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>33_99_Segregating</v>
+        <f>G81&amp;"_"&amp;H81&amp;"_"&amp;F81</f>
+        <v>33_6_Light-black</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>99-分离</v>
+        <f>H81&amp;"-"&amp;D81</f>
+        <v>6-淡黑</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>57</v>
+        <v>110</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="G81" s="2">
         <v>33</v>
       </c>
       <c r="H81" s="2">
-        <v>99</v>
+        <v>6</v>
       </c>
       <c r="I81" s="2">
         <v>80</v>
@@ -3989,30 +4007,30 @@
     </row>
     <row r="82" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>34_0_None</v>
+        <f>G82&amp;"_"&amp;H82&amp;"_"&amp;F82</f>
+        <v>33_7_Black</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0-无</v>
+        <f>H82&amp;"-"&amp;D82</f>
+        <v>7-黑</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="E82" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="G82" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H82" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I82" s="2">
         <v>81</v>
@@ -4020,30 +4038,30 @@
     </row>
     <row r="83" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>34_1_Slight</v>
+        <f>G83&amp;"_"&amp;H83&amp;"_"&amp;F83</f>
+        <v>33_99_Segregating</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-微</v>
+        <f>H83&amp;"-"&amp;D83</f>
+        <v>99-分离</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>115</v>
+        <v>56</v>
       </c>
       <c r="E83" s="2" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="G83" s="2">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H83" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I83" s="2">
         <v>82</v>
@@ -4051,30 +4069,30 @@
     </row>
     <row r="84" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>34_2_Strong</v>
+        <f>G84&amp;"_"&amp;H84&amp;"_"&amp;F84</f>
+        <v>34_0_None</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-强</v>
+        <f>H84&amp;"-"&amp;D84</f>
+        <v>0-无</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="E84" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G84" s="2">
         <v>34</v>
       </c>
       <c r="H84" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I84" s="2">
         <v>83</v>
@@ -4082,30 +4100,30 @@
     </row>
     <row r="85" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>35_2_Excellent</v>
+        <f>G85&amp;"_"&amp;H85&amp;"_"&amp;F85</f>
+        <v>34_1_Slight</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-优</v>
+        <f>H85&amp;"-"&amp;D85</f>
+        <v>1-微</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="G85" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H85" s="2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" s="2">
         <v>84</v>
@@ -4113,30 +4131,30 @@
     </row>
     <row r="86" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>35_1_Good</v>
+        <f>G86&amp;"_"&amp;H86&amp;"_"&amp;F86</f>
+        <v>34_2_Strong</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-良</v>
+        <f>H86&amp;"-"&amp;D86</f>
+        <v>2-强</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>66</v>
+        <v>114</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="G86" s="2">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="H86" s="2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2">
         <v>85</v>
@@ -4144,30 +4162,30 @@
     </row>
     <row r="87" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>35_0_Fair</v>
+        <f>G87&amp;"_"&amp;H87&amp;"_"&amp;F87</f>
+        <v>35_2_Excellent</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0-中</v>
+        <f>H87&amp;"-"&amp;D87</f>
+        <v>2-优</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E87" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G87" s="2">
         <v>35</v>
       </c>
       <c r="H87" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" s="2">
         <v>86</v>
@@ -4175,30 +4193,30 @@
     </row>
     <row r="88" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>35_-1_Poor</v>
+        <f>G88&amp;"_"&amp;H88&amp;"_"&amp;F88</f>
+        <v>35_1_Good</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>-1-差</v>
+        <f>H88&amp;"-"&amp;D88</f>
+        <v>1-良</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E88" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G88" s="2">
         <v>35</v>
       </c>
       <c r="H88" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I88" s="2">
         <v>87</v>
@@ -4206,30 +4224,30 @@
     </row>
     <row r="89" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>36_1_Lanceolate</v>
+        <f>G89&amp;"_"&amp;H89&amp;"_"&amp;F89</f>
+        <v>35_0_Fair</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-披针</v>
+        <f>H89&amp;"-"&amp;D89</f>
+        <v>0-中</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>119</v>
+        <v>66</v>
       </c>
       <c r="E89" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F89" s="4" t="s">
-        <v>50</v>
+        <v>141</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>29</v>
       </c>
       <c r="G89" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H89" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" s="2">
         <v>88</v>
@@ -4237,30 +4255,30 @@
     </row>
     <row r="90" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>36_2_Ovate</v>
+        <f>G90&amp;"_"&amp;H90&amp;"_"&amp;F90</f>
+        <v>35_-1_Poor</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>2-卵圆</v>
+        <f>H90&amp;"-"&amp;D90</f>
+        <v>-1-差</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>123</v>
+        <v>141</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
       <c r="G90" s="2">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H90" s="2">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="I90" s="2">
         <v>89</v>
@@ -4268,30 +4286,30 @@
     </row>
     <row r="91" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>36_3_Oval</v>
+        <f>G91&amp;"_"&amp;H91&amp;"_"&amp;F91</f>
+        <v>36_1_Lanceolate</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3-椭圆</v>
+        <f>H91&amp;"-"&amp;D91</f>
+        <v>1-披针</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E91" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F91" s="2" t="s">
-        <v>18</v>
+        <v>121</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>49</v>
       </c>
       <c r="G91" s="2">
         <v>36</v>
       </c>
       <c r="H91" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I91" s="2">
         <v>90</v>
@@ -4299,30 +4317,30 @@
     </row>
     <row r="92" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>36_4_Round</v>
+        <f>G92&amp;"_"&amp;H92&amp;"_"&amp;F92</f>
+        <v>36_2_Ovate</v>
       </c>
       <c r="B92" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C92" s="2" t="str">
+        <f>H92&amp;"-"&amp;D92</f>
+        <v>2-卵圆</v>
+      </c>
+      <c r="D92" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C92" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>4-圆</v>
-      </c>
-      <c r="D92" s="2" t="s">
-        <v>98</v>
-      </c>
       <c r="E92" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="G92" s="2">
         <v>36</v>
       </c>
       <c r="H92" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I92" s="2">
         <v>91</v>
@@ -4330,30 +4348,30 @@
     </row>
     <row r="93" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>36_99_Segregating</v>
+        <f>G93&amp;"_"&amp;H93&amp;"_"&amp;F93</f>
+        <v>36_3_Oval</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>99-分离</v>
+        <f>H93&amp;"-"&amp;D93</f>
+        <v>3-椭圆</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>57</v>
+        <v>99</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>26</v>
+        <v>18</v>
       </c>
       <c r="G93" s="2">
         <v>36</v>
       </c>
       <c r="H93" s="2">
-        <v>99</v>
+        <v>3</v>
       </c>
       <c r="I93" s="2">
         <v>92</v>
@@ -4361,30 +4379,30 @@
     </row>
     <row r="94" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>37_0_Immune</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>144</v>
+        <f>G94&amp;"_"&amp;H94&amp;"_"&amp;F94</f>
+        <v>36_4_Round</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>0-免疫</v>
+        <f>H94&amp;"-"&amp;D94</f>
+        <v>4-圆</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>72</v>
+        <v>97</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>30</v>
+        <v>52</v>
       </c>
       <c r="G94" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H94" s="2">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I94" s="2">
         <v>93</v>
@@ -4392,30 +4410,30 @@
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>37_1_Highly-resistant</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>144</v>
+        <f>G95&amp;"_"&amp;H95&amp;"_"&amp;F95</f>
+        <v>36_99_Segregating</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>1-高抗</v>
+        <f>H95&amp;"-"&amp;D95</f>
+        <v>99-分离</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="E95" s="2" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G95" s="2">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H95" s="2">
-        <v>1</v>
+        <v>99</v>
       </c>
       <c r="I95" s="2">
         <v>94</v>
@@ -4423,30 +4441,30 @@
     </row>
     <row r="96" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>37_3_Resistant</v>
+        <f>G96&amp;"_"&amp;H96&amp;"_"&amp;F96</f>
+        <v>37_0_Immune</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>3-抗</v>
+        <f>H96&amp;"-"&amp;D96</f>
+        <v>0-免疫</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G96" s="2">
         <v>37</v>
       </c>
       <c r="H96" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I96" s="2">
         <v>95</v>
@@ -4454,30 +4472,30 @@
     </row>
     <row r="97" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>37_7_Susceptible</v>
+        <f>G97&amp;"_"&amp;H97&amp;"_"&amp;F97</f>
+        <v>37_1_Highly-resistant</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f t="shared" si="5"/>
-        <v>7-感</v>
+        <f>H97&amp;"-"&amp;D97</f>
+        <v>1-高抗</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E97" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G97" s="2">
         <v>37</v>
       </c>
       <c r="H97" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I97" s="2">
         <v>96</v>
@@ -4485,30 +4503,30 @@
     </row>
     <row r="98" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>37_9_Highly-susceptible</v>
+        <f>G98&amp;"_"&amp;H98&amp;"_"&amp;F98</f>
+        <v>37_3_Resistant</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f t="shared" ref="C98:C108" si="6">H98&amp;"-"&amp;D98</f>
-        <v>9-高感</v>
+        <f>H98&amp;"-"&amp;D98</f>
+        <v>3-抗</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E98" s="2" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G98" s="2">
         <v>37</v>
       </c>
       <c r="H98" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I98" s="2">
         <v>97</v>
@@ -4516,30 +4534,30 @@
     </row>
     <row r="99" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>38_0_Core-parent</v>
+        <f>G99&amp;"_"&amp;H99&amp;"_"&amp;F99</f>
+        <v>37_7_Susceptible</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0-否</v>
+        <f>H99&amp;"-"&amp;D99</f>
+        <v>7-感</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>146</v>
+        <v>72</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>148</v>
+        <v>31</v>
       </c>
       <c r="G99" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H99" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I99" s="2">
         <v>98</v>
@@ -4547,30 +4565,30 @@
     </row>
     <row r="100" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>38_1_Core-parent</v>
+        <f>G100&amp;"_"&amp;H100&amp;"_"&amp;F100</f>
+        <v>37_9_Highly-susceptible</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>1-是</v>
+        <f>H100&amp;"-"&amp;D100</f>
+        <v>9-高感</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="E100" s="2" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>148</v>
+        <v>32</v>
       </c>
       <c r="G100" s="2">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H100" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I100" s="2">
         <v>99</v>
@@ -4578,30 +4596,30 @@
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>39_2_Excellent</v>
+        <f>G101&amp;"_"&amp;H101&amp;"_"&amp;F101</f>
+        <v>38_0_Core-parent</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>2-优</v>
+        <f>H101&amp;"-"&amp;D101</f>
+        <v>0-否</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
       <c r="E101" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>9</v>
+        <v>146</v>
       </c>
       <c r="G101" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H101" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" s="2">
         <v>100</v>
@@ -4609,27 +4627,27 @@
     </row>
     <row r="102" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>39_1_Good</v>
+        <f>G102&amp;"_"&amp;H102&amp;"_"&amp;F102</f>
+        <v>38_1_Core-parent</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>1-良</v>
+        <f>H102&amp;"-"&amp;D102</f>
+        <v>1-是</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>66</v>
+        <v>145</v>
       </c>
       <c r="E102" s="2" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>10</v>
+        <v>146</v>
       </c>
       <c r="G102" s="2">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H102" s="2">
         <v>1</v>
@@ -4640,30 +4658,30 @@
     </row>
     <row r="103" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>39_0_Fair</v>
+        <f>G103&amp;"_"&amp;H103&amp;"_"&amp;F103</f>
+        <v>39_2_Excellent</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0-中</v>
+        <f>H103&amp;"-"&amp;D103</f>
+        <v>2-优</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>29</v>
+        <v>9</v>
       </c>
       <c r="G103" s="2">
         <v>39</v>
       </c>
       <c r="H103" s="2">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" s="2">
         <v>102</v>
@@ -4671,30 +4689,30 @@
     </row>
     <row r="104" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>39_-1_Poor</v>
+        <f>G104&amp;"_"&amp;H104&amp;"_"&amp;F104</f>
+        <v>39_1_Good</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>-1-差</v>
+        <f>H104&amp;"-"&amp;D104</f>
+        <v>1-良</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E104" s="2" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G104" s="2">
         <v>39</v>
       </c>
       <c r="H104" s="2">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="I104" s="2">
         <v>103</v>
@@ -4702,27 +4720,27 @@
     </row>
     <row r="105" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="str">
-        <f t="shared" ref="A105:A109" si="7">G105&amp;"_"&amp;H105&amp;"_"&amp;F105</f>
-        <v>40_0_Immune</v>
+        <f>G105&amp;"_"&amp;H105&amp;"_"&amp;F105</f>
+        <v>39_0_Fair</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>0-免疫</v>
+        <f>H105&amp;"-"&amp;D105</f>
+        <v>0-中</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="G105" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H105" s="2">
         <v>0</v>
@@ -4733,30 +4751,30 @@
     </row>
     <row r="106" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>40_1_Highly-resistant</v>
+        <f>G106&amp;"_"&amp;H106&amp;"_"&amp;F106</f>
+        <v>39_-1_Poor</v>
       </c>
       <c r="B106" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>1-高抗</v>
+        <f>H106&amp;"-"&amp;D106</f>
+        <v>-1-差</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="E106" s="2" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G106" s="2">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H106" s="2">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="I106" s="2">
         <v>105</v>
@@ -4764,30 +4782,30 @@
     </row>
     <row r="107" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>40_3_Resistant</v>
+        <f>G107&amp;"_"&amp;H107&amp;"_"&amp;F107</f>
+        <v>40_0_Immune</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>3-抗</v>
+        <f>H107&amp;"-"&amp;D107</f>
+        <v>0-免疫</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G107" s="2">
         <v>40</v>
       </c>
       <c r="H107" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I107" s="2">
         <v>106</v>
@@ -4795,30 +4813,30 @@
     </row>
     <row r="108" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>40_7_Susceptible</v>
+        <f>G108&amp;"_"&amp;H108&amp;"_"&amp;F108</f>
+        <v>40_1_Highly-resistant</v>
       </c>
       <c r="B108" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f t="shared" si="6"/>
-        <v>7-感</v>
+        <f>H108&amp;"-"&amp;D108</f>
+        <v>1-高抗</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G108" s="2">
         <v>40</v>
       </c>
       <c r="H108" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I108" s="2">
         <v>107</v>
@@ -4826,30 +4844,30 @@
     </row>
     <row r="109" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="str">
-        <f t="shared" si="7"/>
-        <v>40_9_Highly-susceptible</v>
+        <f>G109&amp;"_"&amp;H109&amp;"_"&amp;F109</f>
+        <v>40_3_Resistant</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f t="shared" ref="C109:C113" si="8">H109&amp;"-"&amp;D109</f>
-        <v>9-高感</v>
+        <f>H109&amp;"-"&amp;D109</f>
+        <v>3-抗</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>74</v>
+        <v>55</v>
       </c>
       <c r="E109" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G109" s="2">
         <v>40</v>
       </c>
       <c r="H109" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I109" s="2">
         <v>108</v>
@@ -4857,30 +4875,30 @@
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="str">
-        <f t="shared" ref="A110:A114" si="9">G110&amp;"_"&amp;H110&amp;"_"&amp;F110</f>
-        <v>41_0_Immune</v>
+        <f>G110&amp;"_"&amp;H110&amp;"_"&amp;F110</f>
+        <v>40_7_Susceptible</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>0-免疫</v>
+        <f>H110&amp;"-"&amp;D110</f>
+        <v>7-感</v>
       </c>
       <c r="D110" s="2" t="s">
         <v>72</v>
       </c>
       <c r="E110" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G110" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H110" s="2">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="I110" s="2">
         <v>109</v>
@@ -4888,30 +4906,30 @@
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>41_1_Highly-resistant</v>
+        <f>G111&amp;"_"&amp;H111&amp;"_"&amp;F111</f>
+        <v>40_9_Highly-susceptible</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>1-高抗</v>
+        <f>H111&amp;"-"&amp;D111</f>
+        <v>9-高感</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>55</v>
+        <v>73</v>
       </c>
       <c r="E111" s="2" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="G111" s="2">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H111" s="2">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="I111" s="2">
         <v>110</v>
@@ -4919,30 +4937,30 @@
     </row>
     <row r="112" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>41_3_Resistant</v>
+        <f>G112&amp;"_"&amp;H112&amp;"_"&amp;F112</f>
+        <v>41_0_Immune</v>
       </c>
       <c r="B112" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>3-抗</v>
+        <f>H112&amp;"-"&amp;D112</f>
+        <v>0-免疫</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="E112" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="G112" s="2">
         <v>41</v>
       </c>
       <c r="H112" s="2">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I112" s="2">
         <v>111</v>
@@ -4950,30 +4968,30 @@
     </row>
     <row r="113" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>41_7_Susceptible</v>
+        <f>G113&amp;"_"&amp;H113&amp;"_"&amp;F113</f>
+        <v>41_1_Highly-resistant</v>
       </c>
       <c r="B113" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f t="shared" si="8"/>
-        <v>7-感</v>
+        <f>H113&amp;"-"&amp;D113</f>
+        <v>1-高抗</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="E113" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="G113" s="2">
         <v>41</v>
       </c>
       <c r="H113" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I113" s="2">
         <v>112</v>
@@ -4981,38 +4999,100 @@
     </row>
     <row r="114" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="str">
-        <f t="shared" si="9"/>
-        <v>41_9_Highly-susceptible</v>
+        <f>G114&amp;"_"&amp;H114&amp;"_"&amp;F114</f>
+        <v>41_3_Resistant</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f t="shared" ref="C114" si="10">H114&amp;"-"&amp;D114</f>
-        <v>9-高感</v>
-      </c>
-      <c r="D114" s="5" t="s">
-        <v>157</v>
+        <f>H114&amp;"-"&amp;D114</f>
+        <v>3-抗</v>
+      </c>
+      <c r="D114" s="2" t="s">
+        <v>55</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="G114" s="2">
         <v>41</v>
       </c>
       <c r="H114" s="2">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I114" s="2">
         <v>113</v>
       </c>
     </row>
+    <row r="115" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A115" s="2" t="str">
+        <f>G115&amp;"_"&amp;H115&amp;"_"&amp;F115</f>
+        <v>41_7_Susceptible</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="2" t="str">
+        <f>H115&amp;"-"&amp;D115</f>
+        <v>7-感</v>
+      </c>
+      <c r="D115" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="G115" s="2">
+        <v>41</v>
+      </c>
+      <c r="H115" s="2">
+        <v>7</v>
+      </c>
+      <c r="I115" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A116" s="2" t="str">
+        <f>G116&amp;"_"&amp;H116&amp;"_"&amp;F116</f>
+        <v>41_9_Highly-susceptible</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="C116" s="2" t="str">
+        <f>H116&amp;"-"&amp;D116</f>
+        <v>9-高感</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="E116" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G116" s="2">
+        <v>41</v>
+      </c>
+      <c r="H116" s="2">
+        <v>9</v>
+      </c>
+      <c r="I116" s="2">
+        <v>115</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I93">
-    <sortCondition ref="G1:G93"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I116">
+    <sortCondition ref="I1:I116"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/temp_traits_qr.xlsx
+++ b/temp_traits_qr.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\FangCloudSync\R_WD360\Project\soyplant\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19EF0DE2-C0B4-45D6-9E2B-17BF0F973BA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F56B66D4-6A98-42AE-9B32-FCCA4280D682}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="481" uniqueCount="171">
   <si>
     <t>trait</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1078,6 +1078,33 @@
   </si>
   <si>
     <t>Bicolor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>早衰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>否</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zaoshuai</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Early_aging</t>
+  </si>
+  <si>
+    <t>Early_aging</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1085,7 +1112,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1126,6 +1153,14 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1162,7 +1197,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1176,6 +1211,14 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1473,13 +1516,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D197314-2881-4497-947D-67555154D6DB}">
-  <dimension ref="A1:I116"/>
+  <dimension ref="A1:I119"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B46" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I119" sqref="I119"/>
+      <selection pane="bottomRight" activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.3"/>
@@ -1509,32 +1552,32 @@
       <c r="D1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="6" t="s">
         <v>120</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="9" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="str">
-        <f>G2&amp;"_"&amp;H2&amp;"_"&amp;F2</f>
+        <f t="shared" ref="A2:A33" si="0">G2&amp;"_"&amp;H2&amp;"_"&amp;F2</f>
         <v>3_1_Highly-resistant</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C2" s="2" t="str">
-        <f>H2&amp;"-"&amp;D2</f>
+        <f t="shared" ref="C2:C33" si="1">H2&amp;"-"&amp;D2</f>
         <v>1-高抗</v>
       </c>
       <c r="D2" s="2" t="s">
@@ -1546,26 +1589,26 @@
       <c r="F2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="2">
+      <c r="G2" s="9">
         <v>3</v>
       </c>
-      <c r="H2" s="2">
+      <c r="H2" s="9">
         <v>1</v>
       </c>
-      <c r="I2" s="2">
+      <c r="I2" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="str">
-        <f>G3&amp;"_"&amp;H3&amp;"_"&amp;F3</f>
+        <f t="shared" si="0"/>
         <v>3_3_Resistant</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C3" s="2" t="str">
-        <f>H3&amp;"-"&amp;D3</f>
+        <f t="shared" si="1"/>
         <v>3-抗</v>
       </c>
       <c r="D3" s="2" t="s">
@@ -1577,26 +1620,26 @@
       <c r="F3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="9">
         <v>3</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="9">
         <v>3</v>
       </c>
-      <c r="I3" s="2">
+      <c r="I3" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="str">
-        <f>G4&amp;"_"&amp;H4&amp;"_"&amp;F4</f>
+        <f t="shared" si="0"/>
         <v>3_99_Segregating</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C4" s="2" t="str">
-        <f>H4&amp;"-"&amp;D4</f>
+        <f t="shared" si="1"/>
         <v>99-分离</v>
       </c>
       <c r="D4" s="2" t="s">
@@ -1608,26 +1651,26 @@
       <c r="F4" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="9">
         <v>3</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="9">
         <v>99</v>
       </c>
-      <c r="I4" s="2">
+      <c r="I4" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="str">
-        <f>G5&amp;"_"&amp;H5&amp;"_"&amp;F5</f>
+        <f t="shared" si="0"/>
         <v>3_5_Moderately-resistant</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C5" s="2" t="str">
-        <f>H5&amp;"-"&amp;D5</f>
+        <f t="shared" si="1"/>
         <v>5-中抗</v>
       </c>
       <c r="D5" s="2" t="s">
@@ -1639,26 +1682,26 @@
       <c r="F5" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="9">
         <v>3</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="9">
         <v>5</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="9">
         <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="str">
-        <f>G6&amp;"_"&amp;H6&amp;"_"&amp;F6</f>
+        <f t="shared" si="0"/>
         <v>3_7_Not-resistant</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C6" s="2" t="str">
-        <f>H6&amp;"-"&amp;D6</f>
+        <f t="shared" si="1"/>
         <v>7-不抗</v>
       </c>
       <c r="D6" s="2" t="s">
@@ -1670,26 +1713,26 @@
       <c r="F6" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="9">
         <v>3</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="9">
         <v>7</v>
       </c>
-      <c r="I6" s="2">
+      <c r="I6" s="9">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="str">
-        <f>G7&amp;"_"&amp;H7&amp;"_"&amp;F7</f>
+        <f t="shared" si="0"/>
         <v>8_1_White</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C7" s="2" t="str">
-        <f>H7&amp;"-"&amp;D7</f>
+        <f t="shared" si="1"/>
         <v>1-白</v>
       </c>
       <c r="D7" s="2" t="s">
@@ -1701,26 +1744,26 @@
       <c r="F7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="9">
         <v>8</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="9">
         <v>1</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="str">
-        <f>G8&amp;"_"&amp;H8&amp;"_"&amp;F8</f>
+        <f t="shared" si="0"/>
         <v>8_2_Purple</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C8" s="2" t="str">
-        <f>H8&amp;"-"&amp;D8</f>
+        <f t="shared" si="1"/>
         <v>2-紫</v>
       </c>
       <c r="D8" s="2" t="s">
@@ -1732,26 +1775,26 @@
       <c r="F8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="9">
         <v>8</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="9">
         <v>2</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="str">
-        <f>G9&amp;"_"&amp;H9&amp;"_"&amp;F9</f>
+        <f t="shared" si="0"/>
         <v>8_99_Segregating</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C9" s="2" t="str">
-        <f>H9&amp;"-"&amp;D9</f>
+        <f t="shared" si="1"/>
         <v>99-分离</v>
       </c>
       <c r="D9" s="2" t="s">
@@ -1763,26 +1806,26 @@
       <c r="F9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="9">
         <v>8</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="9">
         <v>99</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="9">
         <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="str">
-        <f>G10&amp;"_"&amp;H10&amp;"_"&amp;F10</f>
+        <f t="shared" si="0"/>
         <v>9_1_White</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C10" s="2" t="str">
-        <f>H10&amp;"-"&amp;D10</f>
+        <f t="shared" si="1"/>
         <v>1-白</v>
       </c>
       <c r="D10" s="2" t="s">
@@ -1794,26 +1837,26 @@
       <c r="F10" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="9">
         <v>9</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="9">
         <v>1</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="9">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="str">
-        <f>G11&amp;"_"&amp;H11&amp;"_"&amp;F11</f>
+        <f t="shared" si="0"/>
         <v>9_2_Purple</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C11" s="2" t="str">
-        <f>H11&amp;"-"&amp;D11</f>
+        <f t="shared" si="1"/>
         <v>2-紫</v>
       </c>
       <c r="D11" s="2" t="s">
@@ -1825,26 +1868,26 @@
       <c r="F11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="9">
         <v>9</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="9">
         <v>2</v>
       </c>
-      <c r="I11" s="2">
+      <c r="I11" s="9">
         <v>10</v>
       </c>
     </row>
     <row r="12" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="str">
-        <f>G12&amp;"_"&amp;H12&amp;"_"&amp;F12</f>
+        <f t="shared" si="0"/>
         <v>9_99_Segregating</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C12" s="2" t="str">
-        <f>H12&amp;"-"&amp;D12</f>
+        <f t="shared" si="1"/>
         <v>99-分离</v>
       </c>
       <c r="D12" s="2" t="s">
@@ -1856,26 +1899,26 @@
       <c r="F12" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="9">
         <v>9</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="9">
         <v>99</v>
       </c>
-      <c r="I12" s="2">
+      <c r="I12" s="9">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="str">
-        <f>G13&amp;"_"&amp;H13&amp;"_"&amp;F13</f>
+        <f t="shared" si="0"/>
         <v>10_2_Excellent</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C13" s="2" t="str">
-        <f>H13&amp;"-"&amp;D13</f>
+        <f t="shared" si="1"/>
         <v>2-优</v>
       </c>
       <c r="D13" s="2" t="s">
@@ -1887,26 +1930,26 @@
       <c r="F13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="9">
         <v>10</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="9">
         <v>2</v>
       </c>
-      <c r="I13" s="2">
+      <c r="I13" s="9">
         <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="str">
-        <f>G14&amp;"_"&amp;H14&amp;"_"&amp;F14</f>
+        <f t="shared" si="0"/>
         <v>10_1_Good</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C14" s="2" t="str">
-        <f>H14&amp;"-"&amp;D14</f>
+        <f t="shared" si="1"/>
         <v>1-良</v>
       </c>
       <c r="D14" s="2" t="s">
@@ -1918,26 +1961,26 @@
       <c r="F14" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="9">
         <v>10</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="9">
         <v>1</v>
       </c>
-      <c r="I14" s="2">
+      <c r="I14" s="9">
         <v>13</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="str">
-        <f>G15&amp;"_"&amp;H15&amp;"_"&amp;F15</f>
+        <f t="shared" si="0"/>
         <v>10_0_Fair</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C15" s="2" t="str">
-        <f>H15&amp;"-"&amp;D15</f>
+        <f t="shared" si="1"/>
         <v>0-中</v>
       </c>
       <c r="D15" s="2" t="s">
@@ -1949,26 +1992,26 @@
       <c r="F15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="2">
+      <c r="G15" s="9">
         <v>10</v>
       </c>
-      <c r="H15" s="2">
+      <c r="H15" s="9">
         <v>0</v>
       </c>
-      <c r="I15" s="2">
+      <c r="I15" s="9">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="str">
-        <f>G16&amp;"_"&amp;H16&amp;"_"&amp;F16</f>
+        <f t="shared" si="0"/>
         <v>10_-1_Poor</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C16" s="2" t="str">
-        <f>H16&amp;"-"&amp;D16</f>
+        <f t="shared" si="1"/>
         <v>-1-差</v>
       </c>
       <c r="D16" s="2" t="s">
@@ -1980,26 +2023,26 @@
       <c r="F16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G16" s="2">
+      <c r="G16" s="9">
         <v>10</v>
       </c>
-      <c r="H16" s="2">
+      <c r="H16" s="9">
         <v>-1</v>
       </c>
-      <c r="I16" s="2">
+      <c r="I16" s="9">
         <v>15</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="str">
-        <f>G17&amp;"_"&amp;H17&amp;"_"&amp;F17</f>
+        <f t="shared" si="0"/>
         <v>11_1_White</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C17" s="2" t="str">
-        <f>H17&amp;"-"&amp;D17</f>
+        <f t="shared" si="1"/>
         <v>1-白</v>
       </c>
       <c r="D17" s="2" t="s">
@@ -2011,26 +2054,26 @@
       <c r="F17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="2">
+      <c r="G17" s="9">
         <v>11</v>
       </c>
-      <c r="H17" s="2">
+      <c r="H17" s="9">
         <v>1</v>
       </c>
-      <c r="I17" s="2">
+      <c r="I17" s="9">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="str">
-        <f>G18&amp;"_"&amp;H18&amp;"_"&amp;F18</f>
+        <f t="shared" si="0"/>
         <v>11_2_Purple</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C18" s="2" t="str">
-        <f>H18&amp;"-"&amp;D18</f>
+        <f t="shared" si="1"/>
         <v>2-紫</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -2042,26 +2085,26 @@
       <c r="F18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G18" s="2">
+      <c r="G18" s="9">
         <v>11</v>
       </c>
-      <c r="H18" s="2">
+      <c r="H18" s="9">
         <v>2</v>
       </c>
-      <c r="I18" s="2">
+      <c r="I18" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="str">
-        <f>G19&amp;"_"&amp;H19&amp;"_"&amp;F19</f>
+        <f t="shared" si="0"/>
         <v>11_99_Segregating</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C19" s="2" t="str">
-        <f>H19&amp;"-"&amp;D19</f>
+        <f t="shared" si="1"/>
         <v>99-分离</v>
       </c>
       <c r="D19" s="2" t="s">
@@ -2073,26 +2116,26 @@
       <c r="F19" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G19" s="2">
+      <c r="G19" s="9">
         <v>11</v>
       </c>
-      <c r="H19" s="2">
+      <c r="H19" s="9">
         <v>99</v>
       </c>
-      <c r="I19" s="2">
+      <c r="I19" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="20" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="str">
-        <f>G20&amp;"_"&amp;H20&amp;"_"&amp;F20</f>
+        <f t="shared" si="0"/>
         <v>12_2_Excellent</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C20" s="2" t="str">
-        <f>H20&amp;"-"&amp;D20</f>
+        <f t="shared" si="1"/>
         <v>2-优</v>
       </c>
       <c r="D20" s="2" t="s">
@@ -2104,26 +2147,26 @@
       <c r="F20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="2">
+      <c r="G20" s="9">
         <v>12</v>
       </c>
-      <c r="H20" s="2">
+      <c r="H20" s="9">
         <v>2</v>
       </c>
-      <c r="I20" s="2">
+      <c r="I20" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="str">
-        <f>G21&amp;"_"&amp;H21&amp;"_"&amp;F21</f>
+        <f t="shared" si="0"/>
         <v>12_1_Good</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C21" s="2" t="str">
-        <f>H21&amp;"-"&amp;D21</f>
+        <f t="shared" si="1"/>
         <v>1-良</v>
       </c>
       <c r="D21" s="2" t="s">
@@ -2135,26 +2178,26 @@
       <c r="F21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G21" s="2">
+      <c r="G21" s="9">
         <v>12</v>
       </c>
-      <c r="H21" s="2">
+      <c r="H21" s="9">
         <v>1</v>
       </c>
-      <c r="I21" s="2">
+      <c r="I21" s="9">
         <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="str">
-        <f>G22&amp;"_"&amp;H22&amp;"_"&amp;F22</f>
+        <f t="shared" si="0"/>
         <v>12_0_Fair</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C22" s="2" t="str">
-        <f>H22&amp;"-"&amp;D22</f>
+        <f t="shared" si="1"/>
         <v>0-中</v>
       </c>
       <c r="D22" s="2" t="s">
@@ -2166,26 +2209,26 @@
       <c r="F22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G22" s="2">
+      <c r="G22" s="9">
         <v>12</v>
       </c>
-      <c r="H22" s="2">
+      <c r="H22" s="9">
         <v>0</v>
       </c>
-      <c r="I22" s="2">
+      <c r="I22" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="23" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="str">
-        <f>G23&amp;"_"&amp;H23&amp;"_"&amp;F23</f>
+        <f t="shared" si="0"/>
         <v>12_-1_Poor</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C23" s="2" t="str">
-        <f>H23&amp;"-"&amp;D23</f>
+        <f t="shared" si="1"/>
         <v>-1-差</v>
       </c>
       <c r="D23" s="2" t="s">
@@ -2197,26 +2240,26 @@
       <c r="F23" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G23" s="2">
+      <c r="G23" s="9">
         <v>12</v>
       </c>
-      <c r="H23" s="2">
+      <c r="H23" s="9">
         <v>-1</v>
       </c>
-      <c r="I23" s="2">
+      <c r="I23" s="9">
         <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="str">
-        <f>G24&amp;"_"&amp;H24&amp;"_"&amp;F24</f>
+        <f t="shared" si="0"/>
         <v>13_0_Immune</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C24" s="2" t="str">
-        <f>H24&amp;"-"&amp;D24</f>
+        <f t="shared" si="1"/>
         <v>0-免疫</v>
       </c>
       <c r="D24" s="2" t="s">
@@ -2228,26 +2271,26 @@
       <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="2">
+      <c r="G24" s="9">
         <v>13</v>
       </c>
-      <c r="H24" s="2">
+      <c r="H24" s="9">
         <v>0</v>
       </c>
-      <c r="I24" s="2">
+      <c r="I24" s="9">
         <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="str">
-        <f>G25&amp;"_"&amp;H25&amp;"_"&amp;F25</f>
+        <f t="shared" si="0"/>
         <v>13_1_Highly-resistant</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C25" s="2" t="str">
-        <f>H25&amp;"-"&amp;D25</f>
+        <f t="shared" si="1"/>
         <v>1-高抗</v>
       </c>
       <c r="D25" s="2" t="s">
@@ -2259,26 +2302,26 @@
       <c r="F25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G25" s="2">
+      <c r="G25" s="9">
         <v>13</v>
       </c>
-      <c r="H25" s="2">
+      <c r="H25" s="9">
         <v>1</v>
       </c>
-      <c r="I25" s="2">
+      <c r="I25" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="str">
-        <f>G26&amp;"_"&amp;H26&amp;"_"&amp;F26</f>
+        <f t="shared" si="0"/>
         <v>13_3_Resistant</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C26" s="2" t="str">
-        <f>H26&amp;"-"&amp;D26</f>
+        <f t="shared" si="1"/>
         <v>3-抗</v>
       </c>
       <c r="D26" s="2" t="s">
@@ -2290,26 +2333,26 @@
       <c r="F26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G26" s="2">
+      <c r="G26" s="9">
         <v>13</v>
       </c>
-      <c r="H26" s="2">
+      <c r="H26" s="9">
         <v>3</v>
       </c>
-      <c r="I26" s="2">
+      <c r="I26" s="9">
         <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="str">
-        <f>G27&amp;"_"&amp;H27&amp;"_"&amp;F27</f>
+        <f t="shared" si="0"/>
         <v>13_7_Susceptible</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C27" s="2" t="str">
-        <f>H27&amp;"-"&amp;D27</f>
+        <f t="shared" si="1"/>
         <v>7-感</v>
       </c>
       <c r="D27" s="2" t="s">
@@ -2321,26 +2364,26 @@
       <c r="F27" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G27" s="2">
+      <c r="G27" s="9">
         <v>13</v>
       </c>
-      <c r="H27" s="2">
+      <c r="H27" s="9">
         <v>7</v>
       </c>
-      <c r="I27" s="2">
+      <c r="I27" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="28" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="str">
-        <f>G28&amp;"_"&amp;H28&amp;"_"&amp;F28</f>
+        <f t="shared" si="0"/>
         <v>13_9_Highly-susceptible</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C28" s="2" t="str">
-        <f>H28&amp;"-"&amp;D28</f>
+        <f t="shared" si="1"/>
         <v>9-高感</v>
       </c>
       <c r="D28" s="2" t="s">
@@ -2352,26 +2395,26 @@
       <c r="F28" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G28" s="2">
+      <c r="G28" s="9">
         <v>13</v>
       </c>
-      <c r="H28" s="2">
+      <c r="H28" s="9">
         <v>9</v>
       </c>
-      <c r="I28" s="2">
+      <c r="I28" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="29" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="str">
-        <f>G29&amp;"_"&amp;H29&amp;"_"&amp;F29</f>
+        <f t="shared" si="0"/>
         <v>14_0_Immune</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C29" s="2" t="str">
-        <f>H29&amp;"-"&amp;D29</f>
+        <f t="shared" si="1"/>
         <v>0-免疫</v>
       </c>
       <c r="D29" s="2" t="s">
@@ -2383,26 +2426,26 @@
       <c r="F29" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G29" s="2">
+      <c r="G29" s="9">
         <v>14</v>
       </c>
-      <c r="H29" s="2">
+      <c r="H29" s="9">
         <v>0</v>
       </c>
-      <c r="I29" s="2">
+      <c r="I29" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="str">
-        <f>G30&amp;"_"&amp;H30&amp;"_"&amp;F30</f>
+        <f t="shared" si="0"/>
         <v>14_1_Highly-resistant</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C30" s="2" t="str">
-        <f>H30&amp;"-"&amp;D30</f>
+        <f t="shared" si="1"/>
         <v>1-高抗</v>
       </c>
       <c r="D30" s="2" t="s">
@@ -2414,26 +2457,26 @@
       <c r="F30" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G30" s="2">
+      <c r="G30" s="9">
         <v>14</v>
       </c>
-      <c r="H30" s="2">
+      <c r="H30" s="9">
         <v>1</v>
       </c>
-      <c r="I30" s="2">
+      <c r="I30" s="9">
         <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="str">
-        <f>G31&amp;"_"&amp;H31&amp;"_"&amp;F31</f>
+        <f t="shared" si="0"/>
         <v>14_3_Resistant</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C31" s="2" t="str">
-        <f>H31&amp;"-"&amp;D31</f>
+        <f t="shared" si="1"/>
         <v>3-抗</v>
       </c>
       <c r="D31" s="2" t="s">
@@ -2445,26 +2488,26 @@
       <c r="F31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G31" s="2">
+      <c r="G31" s="9">
         <v>14</v>
       </c>
-      <c r="H31" s="2">
+      <c r="H31" s="9">
         <v>3</v>
       </c>
-      <c r="I31" s="2">
+      <c r="I31" s="9">
         <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="str">
-        <f>G32&amp;"_"&amp;H32&amp;"_"&amp;F32</f>
+        <f t="shared" si="0"/>
         <v>14_7_Susceptible</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C32" s="2" t="str">
-        <f>H32&amp;"-"&amp;D32</f>
+        <f t="shared" si="1"/>
         <v>7-感</v>
       </c>
       <c r="D32" s="2" t="s">
@@ -2476,26 +2519,26 @@
       <c r="F32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G32" s="2">
+      <c r="G32" s="9">
         <v>14</v>
       </c>
-      <c r="H32" s="2">
+      <c r="H32" s="9">
         <v>7</v>
       </c>
-      <c r="I32" s="2">
+      <c r="I32" s="9">
         <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="str">
-        <f>G33&amp;"_"&amp;H33&amp;"_"&amp;F33</f>
+        <f t="shared" si="0"/>
         <v>14_9_Highly-susceptible</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C33" s="2" t="str">
-        <f>H33&amp;"-"&amp;D33</f>
+        <f t="shared" si="1"/>
         <v>9-高感</v>
       </c>
       <c r="D33" s="2" t="s">
@@ -2507,26 +2550,26 @@
       <c r="F33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G33" s="2">
+      <c r="G33" s="9">
         <v>14</v>
       </c>
-      <c r="H33" s="2">
+      <c r="H33" s="9">
         <v>9</v>
       </c>
-      <c r="I33" s="2">
+      <c r="I33" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="str">
-        <f>G34&amp;"_"&amp;H34&amp;"_"&amp;F34</f>
+        <f t="shared" ref="A34:A65" si="2">G34&amp;"_"&amp;H34&amp;"_"&amp;F34</f>
         <v>15_1_No-lodging</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C34" s="2" t="str">
-        <f>H34&amp;"-"&amp;D34</f>
+        <f t="shared" ref="C34:C65" si="3">H34&amp;"-"&amp;D34</f>
         <v>1-不倒</v>
       </c>
       <c r="D34" s="2" t="s">
@@ -2538,26 +2581,26 @@
       <c r="F34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G34" s="2">
+      <c r="G34" s="9">
         <v>15</v>
       </c>
-      <c r="H34" s="2">
+      <c r="H34" s="9">
         <v>1</v>
       </c>
-      <c r="I34" s="2">
+      <c r="I34" s="9">
         <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="str">
-        <f>G35&amp;"_"&amp;H35&amp;"_"&amp;F35</f>
+        <f t="shared" si="2"/>
         <v>15_3_Slight-lodging</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C35" s="2" t="str">
-        <f>H35&amp;"-"&amp;D35</f>
+        <f t="shared" si="3"/>
         <v>3-轻倒</v>
       </c>
       <c r="D35" s="2" t="s">
@@ -2569,26 +2612,26 @@
       <c r="F35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G35" s="2">
+      <c r="G35" s="9">
         <v>15</v>
       </c>
-      <c r="H35" s="2">
+      <c r="H35" s="9">
         <v>3</v>
       </c>
-      <c r="I35" s="2">
+      <c r="I35" s="9">
         <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="str">
-        <f>G36&amp;"_"&amp;H36&amp;"_"&amp;F36</f>
+        <f t="shared" si="2"/>
         <v>15_5_Moderate-lodging</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C36" s="2" t="str">
-        <f>H36&amp;"-"&amp;D36</f>
+        <f t="shared" si="3"/>
         <v>5-中倒</v>
       </c>
       <c r="D36" s="2" t="s">
@@ -2600,26 +2643,26 @@
       <c r="F36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G36" s="2">
+      <c r="G36" s="9">
         <v>15</v>
       </c>
-      <c r="H36" s="2">
+      <c r="H36" s="9">
         <v>5</v>
       </c>
-      <c r="I36" s="2">
+      <c r="I36" s="9">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="str">
-        <f>G37&amp;"_"&amp;H37&amp;"_"&amp;F37</f>
+        <f t="shared" si="2"/>
         <v>15_7_Severe-lodging</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C37" s="2" t="str">
-        <f>H37&amp;"-"&amp;D37</f>
+        <f t="shared" si="3"/>
         <v>7-重倒</v>
       </c>
       <c r="D37" s="2" t="s">
@@ -2631,26 +2674,26 @@
       <c r="F37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="G37" s="2">
+      <c r="G37" s="9">
         <v>15</v>
       </c>
-      <c r="H37" s="2">
+      <c r="H37" s="9">
         <v>7</v>
       </c>
-      <c r="I37" s="2">
+      <c r="I37" s="9">
         <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="str">
-        <f>G38&amp;"_"&amp;H38&amp;"_"&amp;F38</f>
+        <f t="shared" si="2"/>
         <v>15_9_Very-severe-lodging</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C38" s="2" t="str">
-        <f>H38&amp;"-"&amp;D38</f>
+        <f t="shared" si="3"/>
         <v>9-严重倒</v>
       </c>
       <c r="D38" s="2" t="s">
@@ -2662,26 +2705,26 @@
       <c r="F38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G38" s="2">
+      <c r="G38" s="9">
         <v>15</v>
       </c>
-      <c r="H38" s="2">
+      <c r="H38" s="9">
         <v>9</v>
       </c>
-      <c r="I38" s="2">
+      <c r="I38" s="9">
         <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="str">
-        <f>G39&amp;"_"&amp;H39&amp;"_"&amp;F39</f>
+        <f t="shared" si="2"/>
         <v>16_2_Excellent</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C39" s="2" t="str">
-        <f>H39&amp;"-"&amp;D39</f>
+        <f t="shared" si="3"/>
         <v>2-优</v>
       </c>
       <c r="D39" s="2" t="s">
@@ -2693,26 +2736,26 @@
       <c r="F39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G39" s="2">
+      <c r="G39" s="9">
         <v>16</v>
       </c>
-      <c r="H39" s="2">
+      <c r="H39" s="9">
         <v>2</v>
       </c>
-      <c r="I39" s="2">
+      <c r="I39" s="9">
         <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="str">
-        <f>G40&amp;"_"&amp;H40&amp;"_"&amp;F40</f>
+        <f t="shared" si="2"/>
         <v>16_1_Good</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C40" s="2" t="str">
-        <f>H40&amp;"-"&amp;D40</f>
+        <f t="shared" si="3"/>
         <v>1-良</v>
       </c>
       <c r="D40" s="2" t="s">
@@ -2724,26 +2767,26 @@
       <c r="F40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G40" s="2">
+      <c r="G40" s="9">
         <v>16</v>
       </c>
-      <c r="H40" s="2">
+      <c r="H40" s="9">
         <v>1</v>
       </c>
-      <c r="I40" s="2">
+      <c r="I40" s="9">
         <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="str">
-        <f>G41&amp;"_"&amp;H41&amp;"_"&amp;F41</f>
+        <f t="shared" si="2"/>
         <v>16_0_Fair</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C41" s="2" t="str">
-        <f>H41&amp;"-"&amp;D41</f>
+        <f t="shared" si="3"/>
         <v>0-中</v>
       </c>
       <c r="D41" s="2" t="s">
@@ -2755,26 +2798,26 @@
       <c r="F41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G41" s="2">
+      <c r="G41" s="9">
         <v>16</v>
       </c>
-      <c r="H41" s="2">
+      <c r="H41" s="9">
         <v>0</v>
       </c>
-      <c r="I41" s="2">
+      <c r="I41" s="9">
         <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="str">
-        <f>G42&amp;"_"&amp;H42&amp;"_"&amp;F42</f>
+        <f t="shared" si="2"/>
         <v>16_-1_Poor</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C42" s="2" t="str">
-        <f>H42&amp;"-"&amp;D42</f>
+        <f t="shared" si="3"/>
         <v>-1-差</v>
       </c>
       <c r="D42" s="2" t="s">
@@ -2786,26 +2829,26 @@
       <c r="F42" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G42" s="2">
+      <c r="G42" s="9">
         <v>16</v>
       </c>
-      <c r="H42" s="2">
+      <c r="H42" s="9">
         <v>-1</v>
       </c>
-      <c r="I42" s="2">
+      <c r="I42" s="9">
         <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="str">
-        <f>G43&amp;"_"&amp;H43&amp;"_"&amp;F43</f>
+        <f t="shared" si="2"/>
         <v>18_2_Excellent</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C43" s="2" t="str">
-        <f>H43&amp;"-"&amp;D43</f>
+        <f t="shared" si="3"/>
         <v>2-优</v>
       </c>
       <c r="D43" s="2" t="s">
@@ -2817,26 +2860,26 @@
       <c r="F43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G43" s="2">
+      <c r="G43" s="9">
         <v>18</v>
       </c>
-      <c r="H43" s="2">
+      <c r="H43" s="9">
         <v>2</v>
       </c>
-      <c r="I43" s="2">
+      <c r="I43" s="9">
         <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="str">
-        <f>G44&amp;"_"&amp;H44&amp;"_"&amp;F44</f>
+        <f t="shared" si="2"/>
         <v>18_1_Good</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C44" s="2" t="str">
-        <f>H44&amp;"-"&amp;D44</f>
+        <f t="shared" si="3"/>
         <v>1-良</v>
       </c>
       <c r="D44" s="2" t="s">
@@ -2848,26 +2891,26 @@
       <c r="F44" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G44" s="2">
+      <c r="G44" s="9">
         <v>18</v>
       </c>
-      <c r="H44" s="2">
+      <c r="H44" s="9">
         <v>1</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="9">
         <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="str">
-        <f>G45&amp;"_"&amp;H45&amp;"_"&amp;F45</f>
+        <f t="shared" si="2"/>
         <v>18_0_Fair</v>
       </c>
       <c r="B45" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="2" t="str">
-        <f>H45&amp;"-"&amp;D45</f>
+        <f t="shared" si="3"/>
         <v>0-中</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2879,26 +2922,26 @@
       <c r="F45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G45" s="2">
+      <c r="G45" s="9">
         <v>18</v>
       </c>
-      <c r="H45" s="2">
+      <c r="H45" s="9">
         <v>0</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="9">
         <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="str">
-        <f>G46&amp;"_"&amp;H46&amp;"_"&amp;F46</f>
+        <f t="shared" si="2"/>
         <v>18_-1_Poor</v>
       </c>
       <c r="B46" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C46" s="2" t="str">
-        <f>H46&amp;"-"&amp;D46</f>
+        <f t="shared" si="3"/>
         <v>-1-差</v>
       </c>
       <c r="D46" s="2" t="s">
@@ -2910,26 +2953,26 @@
       <c r="F46" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G46" s="2">
+      <c r="G46" s="9">
         <v>18</v>
       </c>
-      <c r="H46" s="2">
+      <c r="H46" s="9">
         <v>-1</v>
       </c>
-      <c r="I46" s="2">
+      <c r="I46" s="9">
         <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="str">
-        <f>G47&amp;"_"&amp;H47&amp;"_"&amp;F47</f>
+        <f t="shared" si="2"/>
         <v>19_3_Indeterminate</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C47" s="2" t="str">
-        <f>H47&amp;"-"&amp;D47</f>
+        <f t="shared" si="3"/>
         <v>3-无限</v>
       </c>
       <c r="D47" s="2" t="s">
@@ -2941,26 +2984,26 @@
       <c r="F47" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G47" s="2">
+      <c r="G47" s="9">
         <v>19</v>
       </c>
-      <c r="H47" s="2">
+      <c r="H47" s="9">
         <v>3</v>
       </c>
-      <c r="I47" s="2">
+      <c r="I47" s="9">
         <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="str">
-        <f>G48&amp;"_"&amp;H48&amp;"_"&amp;F48</f>
+        <f t="shared" si="2"/>
         <v>19_5_Semi-determinate</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C48" s="2" t="str">
-        <f>H48&amp;"-"&amp;D48</f>
+        <f t="shared" si="3"/>
         <v>5-亚有限</v>
       </c>
       <c r="D48" s="2" t="s">
@@ -2972,26 +3015,26 @@
       <c r="F48" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="G48" s="2">
+      <c r="G48" s="9">
         <v>19</v>
       </c>
-      <c r="H48" s="2">
+      <c r="H48" s="9">
         <v>5</v>
       </c>
-      <c r="I48" s="2">
+      <c r="I48" s="9">
         <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="str">
-        <f>G49&amp;"_"&amp;H49&amp;"_"&amp;F49</f>
+        <f t="shared" si="2"/>
         <v>19_7_Determinate</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C49" s="2" t="str">
-        <f>H49&amp;"-"&amp;D49</f>
+        <f t="shared" si="3"/>
         <v>7-有限</v>
       </c>
       <c r="D49" s="2" t="s">
@@ -3003,57 +3046,57 @@
       <c r="F49" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="9">
         <v>19</v>
       </c>
-      <c r="H49" s="2">
+      <c r="H49" s="9">
         <v>7</v>
       </c>
-      <c r="I49" s="2">
+      <c r="I49" s="9">
         <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="str">
-        <f>G50&amp;"_"&amp;H50&amp;"_"&amp;F50</f>
+        <f t="shared" si="2"/>
         <v>19_99_Segregating</v>
       </c>
       <c r="B50" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C50" s="2" t="str">
-        <f>H50&amp;"-"&amp;D50</f>
+        <f t="shared" si="3"/>
         <v>99-分离</v>
       </c>
       <c r="D50" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="E50" s="5" t="s">
+      <c r="E50" s="2" t="s">
         <v>133</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="9">
         <v>19</v>
       </c>
-      <c r="H50" s="2">
+      <c r="H50" s="9">
         <v>99</v>
       </c>
-      <c r="I50" s="2">
+      <c r="I50" s="9">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="str">
-        <f>G51&amp;"_"&amp;H51&amp;"_"&amp;F51</f>
+        <f t="shared" si="2"/>
         <v>20_1_Gray</v>
       </c>
       <c r="B51" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C51" s="2" t="str">
-        <f>H51&amp;"-"&amp;D51</f>
+        <f t="shared" si="3"/>
         <v>1-灰</v>
       </c>
       <c r="D51" s="2" t="s">
@@ -3065,26 +3108,26 @@
       <c r="F51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G51" s="2">
+      <c r="G51" s="9">
         <v>20</v>
       </c>
-      <c r="H51" s="2">
+      <c r="H51" s="9">
         <v>1</v>
       </c>
-      <c r="I51" s="2">
+      <c r="I51" s="9">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="str">
-        <f>G52&amp;"_"&amp;H52&amp;"_"&amp;F52</f>
+        <f t="shared" si="2"/>
         <v>20_2_Brown</v>
       </c>
       <c r="B52" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C52" s="2" t="str">
-        <f>H52&amp;"-"&amp;D52</f>
+        <f t="shared" si="3"/>
         <v>2-棕</v>
       </c>
       <c r="D52" s="2" t="s">
@@ -3096,26 +3139,26 @@
       <c r="F52" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G52" s="2">
+      <c r="G52" s="9">
         <v>20</v>
       </c>
-      <c r="H52" s="2">
+      <c r="H52" s="9">
         <v>2</v>
       </c>
-      <c r="I52" s="2">
+      <c r="I52" s="9">
         <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="str">
-        <f>G53&amp;"_"&amp;H53&amp;"_"&amp;F53</f>
+        <f t="shared" si="2"/>
         <v>20_99_Segregating</v>
       </c>
       <c r="B53" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C53" s="2" t="str">
-        <f>H53&amp;"-"&amp;D53</f>
+        <f t="shared" si="3"/>
         <v>99-分离</v>
       </c>
       <c r="D53" s="2" t="s">
@@ -3127,26 +3170,26 @@
       <c r="F53" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G53" s="2">
+      <c r="G53" s="9">
         <v>20</v>
       </c>
-      <c r="H53" s="2">
+      <c r="H53" s="9">
         <v>99</v>
       </c>
-      <c r="I53" s="2">
+      <c r="I53" s="9">
         <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="str">
-        <f>G54&amp;"_"&amp;H54&amp;"_"&amp;F54</f>
+        <f t="shared" si="2"/>
         <v>21_1_Gray-brown</v>
       </c>
       <c r="B54" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C54" s="2" t="str">
-        <f>H54&amp;"-"&amp;D54</f>
+        <f t="shared" si="3"/>
         <v>1-灰褐</v>
       </c>
       <c r="D54" s="2" t="s">
@@ -3158,26 +3201,26 @@
       <c r="F54" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G54" s="2">
+      <c r="G54" s="9">
         <v>21</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="9">
         <v>1</v>
       </c>
-      <c r="I54" s="2">
+      <c r="I54" s="9">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="str">
-        <f>G55&amp;"_"&amp;H55&amp;"_"&amp;F55</f>
+        <f t="shared" si="2"/>
         <v>21_2_Yellow-brown</v>
       </c>
       <c r="B55" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="2" t="str">
-        <f>H55&amp;"-"&amp;D55</f>
+        <f t="shared" si="3"/>
         <v>2-黄褐</v>
       </c>
       <c r="D55" s="2" t="s">
@@ -3189,26 +3232,26 @@
       <c r="F55" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G55" s="2">
+      <c r="G55" s="9">
         <v>21</v>
       </c>
-      <c r="H55" s="2">
+      <c r="H55" s="9">
         <v>2</v>
       </c>
-      <c r="I55" s="2">
+      <c r="I55" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="str">
-        <f>G56&amp;"_"&amp;H56&amp;"_"&amp;F56</f>
+        <f t="shared" si="2"/>
         <v>21_3_Brown</v>
       </c>
       <c r="B56" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C56" s="2" t="str">
-        <f>H56&amp;"-"&amp;D56</f>
+        <f t="shared" si="3"/>
         <v>3-褐</v>
       </c>
       <c r="D56" s="2" t="s">
@@ -3220,26 +3263,26 @@
       <c r="F56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="2">
+      <c r="G56" s="9">
         <v>21</v>
       </c>
-      <c r="H56" s="2">
+      <c r="H56" s="9">
         <v>3</v>
       </c>
-      <c r="I56" s="2">
+      <c r="I56" s="9">
         <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="str">
-        <f>G57&amp;"_"&amp;H57&amp;"_"&amp;F57</f>
+        <f t="shared" si="2"/>
         <v>21_4_Dark-brown</v>
       </c>
       <c r="B57" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C57" s="2" t="str">
-        <f>H57&amp;"-"&amp;D57</f>
+        <f t="shared" si="3"/>
         <v>4-深褐</v>
       </c>
       <c r="D57" s="2" t="s">
@@ -3251,26 +3294,26 @@
       <c r="F57" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G57" s="2">
+      <c r="G57" s="9">
         <v>21</v>
       </c>
-      <c r="H57" s="2">
+      <c r="H57" s="9">
         <v>4</v>
       </c>
-      <c r="I57" s="2">
+      <c r="I57" s="9">
         <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="str">
-        <f>G58&amp;"_"&amp;H58&amp;"_"&amp;F58</f>
+        <f t="shared" si="2"/>
         <v>21_5_Black</v>
       </c>
       <c r="B58" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C58" s="2" t="str">
-        <f>H58&amp;"-"&amp;D58</f>
+        <f t="shared" si="3"/>
         <v>5-黑</v>
       </c>
       <c r="D58" s="2" t="s">
@@ -3282,26 +3325,26 @@
       <c r="F58" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G58" s="2">
+      <c r="G58" s="9">
         <v>21</v>
       </c>
-      <c r="H58" s="2">
+      <c r="H58" s="9">
         <v>5</v>
       </c>
-      <c r="I58" s="2">
+      <c r="I58" s="9">
         <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="str">
-        <f>G59&amp;"_"&amp;H59&amp;"_"&amp;F59</f>
+        <f t="shared" si="2"/>
         <v>21_99_Segregating</v>
       </c>
       <c r="B59" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C59" s="2" t="str">
-        <f>H59&amp;"-"&amp;D59</f>
+        <f t="shared" si="3"/>
         <v>99-分离</v>
       </c>
       <c r="D59" s="5" t="s">
@@ -3313,26 +3356,26 @@
       <c r="F59" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G59" s="2">
+      <c r="G59" s="9">
         <v>21</v>
       </c>
-      <c r="H59" s="2">
+      <c r="H59" s="9">
         <v>99</v>
       </c>
-      <c r="I59" s="2">
+      <c r="I59" s="9">
         <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="str">
-        <f>G60&amp;"_"&amp;H60&amp;"_"&amp;F60</f>
+        <f t="shared" si="2"/>
         <v>30_1_Round</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C60" s="2" t="str">
-        <f>H60&amp;"-"&amp;D60</f>
+        <f t="shared" si="3"/>
         <v>1-圆</v>
       </c>
       <c r="D60" s="2" t="s">
@@ -3344,26 +3387,26 @@
       <c r="F60" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="2">
+      <c r="G60" s="9">
         <v>30</v>
       </c>
-      <c r="H60" s="2">
+      <c r="H60" s="9">
         <v>1</v>
       </c>
-      <c r="I60" s="2">
+      <c r="I60" s="9">
         <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="str">
-        <f>G61&amp;"_"&amp;H61&amp;"_"&amp;F61</f>
+        <f t="shared" si="2"/>
         <v>30_2_Flattened-round</v>
       </c>
       <c r="B61" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C61" s="2" t="str">
-        <f>H61&amp;"-"&amp;D61</f>
+        <f t="shared" si="3"/>
         <v>2-扁圆</v>
       </c>
       <c r="D61" s="2" t="s">
@@ -3375,26 +3418,26 @@
       <c r="F61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="G61" s="2">
+      <c r="G61" s="9">
         <v>30</v>
       </c>
-      <c r="H61" s="2">
+      <c r="H61" s="9">
         <v>2</v>
       </c>
-      <c r="I61" s="2">
+      <c r="I61" s="9">
         <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="str">
-        <f>G62&amp;"_"&amp;H62&amp;"_"&amp;F62</f>
+        <f t="shared" si="2"/>
         <v>30_3_Oval</v>
       </c>
       <c r="B62" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C62" s="2" t="str">
-        <f>H62&amp;"-"&amp;D62</f>
+        <f t="shared" si="3"/>
         <v>3-椭圆</v>
       </c>
       <c r="D62" s="2" t="s">
@@ -3406,26 +3449,26 @@
       <c r="F62" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G62" s="2">
+      <c r="G62" s="9">
         <v>30</v>
       </c>
-      <c r="H62" s="2">
+      <c r="H62" s="9">
         <v>3</v>
       </c>
-      <c r="I62" s="2">
+      <c r="I62" s="9">
         <v>61</v>
       </c>
     </row>
     <row r="63" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="str">
-        <f>G63&amp;"_"&amp;H63&amp;"_"&amp;F63</f>
+        <f t="shared" si="2"/>
         <v>30_4_Flattened-oval</v>
       </c>
       <c r="B63" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C63" s="2" t="str">
-        <f>H63&amp;"-"&amp;D63</f>
+        <f t="shared" si="3"/>
         <v>4-扁椭圆</v>
       </c>
       <c r="D63" s="2" t="s">
@@ -3437,26 +3480,26 @@
       <c r="F63" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="G63" s="2">
+      <c r="G63" s="9">
         <v>30</v>
       </c>
-      <c r="H63" s="2">
+      <c r="H63" s="9">
         <v>4</v>
       </c>
-      <c r="I63" s="2">
+      <c r="I63" s="9">
         <v>62</v>
       </c>
     </row>
     <row r="64" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="str">
-        <f>G64&amp;"_"&amp;H64&amp;"_"&amp;F64</f>
+        <f t="shared" si="2"/>
         <v>30_5_Long-oval</v>
       </c>
       <c r="B64" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C64" s="2" t="str">
-        <f>H64&amp;"-"&amp;D64</f>
+        <f t="shared" si="3"/>
         <v>5-长椭圆</v>
       </c>
       <c r="D64" s="2" t="s">
@@ -3468,26 +3511,26 @@
       <c r="F64" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="G64" s="2">
+      <c r="G64" s="9">
         <v>30</v>
       </c>
-      <c r="H64" s="2">
+      <c r="H64" s="9">
         <v>5</v>
       </c>
-      <c r="I64" s="2">
+      <c r="I64" s="9">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="str">
-        <f>G65&amp;"_"&amp;H65&amp;"_"&amp;F65</f>
+        <f t="shared" si="2"/>
         <v>30_6_Kidney</v>
       </c>
       <c r="B65" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C65" s="2" t="str">
-        <f>H65&amp;"-"&amp;D65</f>
+        <f t="shared" si="3"/>
         <v>6-肾</v>
       </c>
       <c r="D65" s="2" t="s">
@@ -3499,26 +3542,26 @@
       <c r="F65" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="G65" s="2">
+      <c r="G65" s="9">
         <v>30</v>
       </c>
-      <c r="H65" s="2">
+      <c r="H65" s="9">
         <v>6</v>
       </c>
-      <c r="I65" s="2">
+      <c r="I65" s="9">
         <v>64</v>
       </c>
     </row>
     <row r="66" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="str">
-        <f>G66&amp;"_"&amp;H66&amp;"_"&amp;F66</f>
+        <f t="shared" ref="A66:A97" si="4">G66&amp;"_"&amp;H66&amp;"_"&amp;F66</f>
         <v>30_99_Segregating</v>
       </c>
       <c r="B66" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C66" s="2" t="str">
-        <f>H66&amp;"-"&amp;D66</f>
+        <f t="shared" ref="C66:C97" si="5">H66&amp;"-"&amp;D66</f>
         <v>99-分离</v>
       </c>
       <c r="D66" s="5" t="s">
@@ -3530,26 +3573,26 @@
       <c r="F66" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G66" s="2">
+      <c r="G66" s="9">
         <v>30</v>
       </c>
-      <c r="H66" s="2">
+      <c r="H66" s="9">
         <v>99</v>
       </c>
-      <c r="I66" s="2">
+      <c r="I66" s="9">
         <v>65</v>
       </c>
     </row>
     <row r="67" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="str">
-        <f>G67&amp;"_"&amp;H67&amp;"_"&amp;F67</f>
+        <f t="shared" si="4"/>
         <v>31_1_Yellow</v>
       </c>
       <c r="B67" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C67" s="2" t="str">
-        <f>H67&amp;"-"&amp;D67</f>
+        <f t="shared" si="5"/>
         <v>1-黄</v>
       </c>
       <c r="D67" s="2" t="s">
@@ -3561,26 +3604,26 @@
       <c r="F67" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G67" s="2">
+      <c r="G67" s="9">
         <v>31</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="9">
         <v>1</v>
       </c>
-      <c r="I67" s="2">
+      <c r="I67" s="9">
         <v>66</v>
       </c>
     </row>
     <row r="68" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="str">
-        <f>G68&amp;"_"&amp;H68&amp;"_"&amp;F68</f>
+        <f t="shared" si="4"/>
         <v>31_2_Green</v>
       </c>
       <c r="B68" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C68" s="2" t="str">
-        <f>H68&amp;"-"&amp;D68</f>
+        <f t="shared" si="5"/>
         <v>2-绿</v>
       </c>
       <c r="D68" s="5" t="s">
@@ -3592,26 +3635,26 @@
       <c r="F68" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="G68" s="2">
+      <c r="G68" s="9">
         <v>31</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="9">
         <v>2</v>
       </c>
-      <c r="I68" s="2">
+      <c r="I68" s="9">
         <v>67</v>
       </c>
     </row>
     <row r="69" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="str">
-        <f>G69&amp;"_"&amp;H69&amp;"_"&amp;F69</f>
+        <f t="shared" si="4"/>
         <v>31_3_Black</v>
       </c>
       <c r="B69" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C69" s="2" t="str">
-        <f>H69&amp;"-"&amp;D69</f>
+        <f t="shared" si="5"/>
         <v>3-黑</v>
       </c>
       <c r="D69" s="5" t="s">
@@ -3623,26 +3666,26 @@
       <c r="F69" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="9">
         <v>31</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H69" s="9">
         <v>3</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="9">
         <v>68</v>
       </c>
     </row>
     <row r="70" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="str">
-        <f>G70&amp;"_"&amp;H70&amp;"_"&amp;F70</f>
+        <f t="shared" si="4"/>
         <v>31_4_Brown</v>
       </c>
       <c r="B70" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C70" s="2" t="str">
-        <f>H70&amp;"-"&amp;D70</f>
+        <f t="shared" si="5"/>
         <v>4-褐</v>
       </c>
       <c r="D70" s="5" t="s">
@@ -3654,26 +3697,26 @@
       <c r="F70" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="9">
         <v>31</v>
       </c>
-      <c r="H70" s="2">
+      <c r="H70" s="9">
         <v>4</v>
       </c>
-      <c r="I70" s="2">
+      <c r="I70" s="9">
         <v>69</v>
       </c>
     </row>
     <row r="71" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="str">
-        <f>G71&amp;"_"&amp;H71&amp;"_"&amp;F71</f>
+        <f t="shared" si="4"/>
         <v>31_5_Bicolor</v>
       </c>
       <c r="B71" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C71" s="2" t="str">
-        <f>H71&amp;"-"&amp;D71</f>
+        <f t="shared" si="5"/>
         <v>5-双色</v>
       </c>
       <c r="D71" s="5" t="s">
@@ -3685,26 +3728,26 @@
       <c r="F71" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="9">
         <v>31</v>
       </c>
-      <c r="H71" s="2">
+      <c r="H71" s="9">
         <v>5</v>
       </c>
-      <c r="I71" s="2">
+      <c r="I71" s="9">
         <v>70</v>
       </c>
     </row>
     <row r="72" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="str">
-        <f>G72&amp;"_"&amp;H72&amp;"_"&amp;F72</f>
+        <f t="shared" si="4"/>
         <v>31_99_Segregating</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C72" s="2" t="str">
-        <f>H72&amp;"-"&amp;D72</f>
+        <f t="shared" si="5"/>
         <v>99-分离</v>
       </c>
       <c r="D72" s="5" t="s">
@@ -3716,26 +3759,26 @@
       <c r="F72" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="9">
         <v>31</v>
       </c>
-      <c r="H72" s="2">
+      <c r="H72" s="9">
         <v>99</v>
       </c>
-      <c r="I72" s="2">
+      <c r="I72" s="9">
         <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="str">
-        <f>G73&amp;"_"&amp;H73&amp;"_"&amp;F73</f>
+        <f t="shared" si="4"/>
         <v>32_1_Yellow</v>
       </c>
       <c r="B73" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C73" s="2" t="str">
-        <f>H73&amp;"-"&amp;D73</f>
+        <f t="shared" si="5"/>
         <v>1-黄</v>
       </c>
       <c r="D73" s="2" t="s">
@@ -3747,26 +3790,26 @@
       <c r="F73" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G73" s="2">
+      <c r="G73" s="9">
         <v>32</v>
       </c>
-      <c r="H73" s="2">
+      <c r="H73" s="9">
         <v>1</v>
       </c>
-      <c r="I73" s="2">
+      <c r="I73" s="9">
         <v>72</v>
       </c>
     </row>
     <row r="74" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="str">
-        <f>G74&amp;"_"&amp;H74&amp;"_"&amp;F74</f>
+        <f t="shared" si="4"/>
         <v>32_2_Green</v>
       </c>
       <c r="B74" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C74" s="2" t="str">
-        <f>H74&amp;"-"&amp;D74</f>
+        <f t="shared" si="5"/>
         <v>2-绿</v>
       </c>
       <c r="D74" s="2" t="s">
@@ -3778,26 +3821,26 @@
       <c r="F74" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="2">
+      <c r="G74" s="9">
         <v>32</v>
       </c>
-      <c r="H74" s="2">
+      <c r="H74" s="9">
         <v>2</v>
       </c>
-      <c r="I74" s="2">
+      <c r="I74" s="9">
         <v>73</v>
       </c>
     </row>
     <row r="75" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="str">
-        <f>G75&amp;"_"&amp;H75&amp;"_"&amp;F75</f>
+        <f t="shared" si="4"/>
         <v>31_99_Segregating</v>
       </c>
       <c r="B75" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C75" s="2" t="str">
-        <f>H75&amp;"-"&amp;D75</f>
+        <f t="shared" si="5"/>
         <v>99-分离</v>
       </c>
       <c r="D75" s="5" t="s">
@@ -3809,26 +3852,26 @@
       <c r="F75" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G75" s="2">
+      <c r="G75" s="9">
         <v>31</v>
       </c>
-      <c r="H75" s="2">
+      <c r="H75" s="9">
         <v>99</v>
       </c>
-      <c r="I75" s="2">
+      <c r="I75" s="9">
         <v>74</v>
       </c>
     </row>
     <row r="76" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="str">
-        <f>G76&amp;"_"&amp;H76&amp;"_"&amp;F76</f>
+        <f t="shared" si="4"/>
         <v>33_1_Yellow</v>
       </c>
       <c r="B76" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C76" s="2" t="str">
-        <f>H76&amp;"-"&amp;D76</f>
+        <f t="shared" si="5"/>
         <v>1-黄</v>
       </c>
       <c r="D76" s="2" t="s">
@@ -3840,26 +3883,26 @@
       <c r="F76" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G76" s="2">
+      <c r="G76" s="9">
         <v>33</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="9">
         <v>1</v>
       </c>
-      <c r="I76" s="2">
+      <c r="I76" s="9">
         <v>75</v>
       </c>
     </row>
     <row r="77" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="str">
-        <f>G77&amp;"_"&amp;H77&amp;"_"&amp;F77</f>
+        <f t="shared" si="4"/>
         <v>33_2_Light-brown</v>
       </c>
       <c r="B77" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C77" s="2" t="str">
-        <f>H77&amp;"-"&amp;D77</f>
+        <f t="shared" si="5"/>
         <v>2-淡褐</v>
       </c>
       <c r="D77" s="2" t="s">
@@ -3871,26 +3914,26 @@
       <c r="F77" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="G77" s="2">
+      <c r="G77" s="9">
         <v>33</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H77" s="9">
         <v>2</v>
       </c>
-      <c r="I77" s="2">
+      <c r="I77" s="9">
         <v>76</v>
       </c>
     </row>
     <row r="78" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="str">
-        <f>G78&amp;"_"&amp;H78&amp;"_"&amp;F78</f>
+        <f t="shared" si="4"/>
         <v>33_3_Brown</v>
       </c>
       <c r="B78" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C78" s="2" t="str">
-        <f>H78&amp;"-"&amp;D78</f>
+        <f t="shared" si="5"/>
         <v>3-褐</v>
       </c>
       <c r="D78" s="2" t="s">
@@ -3902,26 +3945,26 @@
       <c r="F78" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G78" s="2">
+      <c r="G78" s="9">
         <v>33</v>
       </c>
-      <c r="H78" s="2">
+      <c r="H78" s="9">
         <v>3</v>
       </c>
-      <c r="I78" s="2">
+      <c r="I78" s="9">
         <v>77</v>
       </c>
     </row>
     <row r="79" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="str">
-        <f>G79&amp;"_"&amp;H79&amp;"_"&amp;F79</f>
+        <f t="shared" si="4"/>
         <v>33_4_Dark-brown</v>
       </c>
       <c r="B79" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C79" s="2" t="str">
-        <f>H79&amp;"-"&amp;D79</f>
+        <f t="shared" si="5"/>
         <v>4-深褐</v>
       </c>
       <c r="D79" s="2" t="s">
@@ -3933,26 +3976,26 @@
       <c r="F79" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G79" s="2">
+      <c r="G79" s="9">
         <v>33</v>
       </c>
-      <c r="H79" s="2">
+      <c r="H79" s="9">
         <v>4</v>
       </c>
-      <c r="I79" s="2">
+      <c r="I79" s="9">
         <v>78</v>
       </c>
     </row>
     <row r="80" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="str">
-        <f>G80&amp;"_"&amp;H80&amp;"_"&amp;F80</f>
+        <f t="shared" si="4"/>
         <v>33_5_Blue</v>
       </c>
       <c r="B80" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C80" s="2" t="str">
-        <f>H80&amp;"-"&amp;D80</f>
+        <f t="shared" si="5"/>
         <v>5-蓝</v>
       </c>
       <c r="D80" s="2" t="s">
@@ -3964,26 +4007,26 @@
       <c r="F80" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G80" s="2">
+      <c r="G80" s="9">
         <v>33</v>
       </c>
-      <c r="H80" s="2">
+      <c r="H80" s="9">
         <v>5</v>
       </c>
-      <c r="I80" s="2">
+      <c r="I80" s="9">
         <v>79</v>
       </c>
     </row>
     <row r="81" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="str">
-        <f>G81&amp;"_"&amp;H81&amp;"_"&amp;F81</f>
+        <f t="shared" si="4"/>
         <v>33_6_Light-black</v>
       </c>
       <c r="B81" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C81" s="2" t="str">
-        <f>H81&amp;"-"&amp;D81</f>
+        <f t="shared" si="5"/>
         <v>6-淡黑</v>
       </c>
       <c r="D81" s="2" t="s">
@@ -3995,26 +4038,26 @@
       <c r="F81" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="G81" s="2">
+      <c r="G81" s="9">
         <v>33</v>
       </c>
-      <c r="H81" s="2">
+      <c r="H81" s="9">
         <v>6</v>
       </c>
-      <c r="I81" s="2">
+      <c r="I81" s="9">
         <v>80</v>
       </c>
     </row>
     <row r="82" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="str">
-        <f>G82&amp;"_"&amp;H82&amp;"_"&amp;F82</f>
+        <f t="shared" si="4"/>
         <v>33_7_Black</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C82" s="2" t="str">
-        <f>H82&amp;"-"&amp;D82</f>
+        <f t="shared" si="5"/>
         <v>7-黑</v>
       </c>
       <c r="D82" s="2" t="s">
@@ -4026,26 +4069,26 @@
       <c r="F82" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G82" s="2">
+      <c r="G82" s="9">
         <v>33</v>
       </c>
-      <c r="H82" s="2">
+      <c r="H82" s="9">
         <v>7</v>
       </c>
-      <c r="I82" s="2">
+      <c r="I82" s="9">
         <v>81</v>
       </c>
     </row>
     <row r="83" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="str">
-        <f>G83&amp;"_"&amp;H83&amp;"_"&amp;F83</f>
+        <f t="shared" si="4"/>
         <v>33_99_Segregating</v>
       </c>
       <c r="B83" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C83" s="2" t="str">
-        <f>H83&amp;"-"&amp;D83</f>
+        <f t="shared" si="5"/>
         <v>99-分离</v>
       </c>
       <c r="D83" s="2" t="s">
@@ -4057,26 +4100,26 @@
       <c r="F83" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G83" s="2">
+      <c r="G83" s="9">
         <v>33</v>
       </c>
-      <c r="H83" s="2">
+      <c r="H83" s="9">
         <v>99</v>
       </c>
-      <c r="I83" s="2">
+      <c r="I83" s="9">
         <v>82</v>
       </c>
     </row>
     <row r="84" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="str">
-        <f>G84&amp;"_"&amp;H84&amp;"_"&amp;F84</f>
+        <f t="shared" si="4"/>
         <v>34_0_None</v>
       </c>
       <c r="B84" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C84" s="2" t="str">
-        <f>H84&amp;"-"&amp;D84</f>
+        <f t="shared" si="5"/>
         <v>0-无</v>
       </c>
       <c r="D84" s="2" t="s">
@@ -4088,26 +4131,26 @@
       <c r="F84" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G84" s="2">
+      <c r="G84" s="9">
         <v>34</v>
       </c>
-      <c r="H84" s="2">
+      <c r="H84" s="9">
         <v>0</v>
       </c>
-      <c r="I84" s="2">
+      <c r="I84" s="9">
         <v>83</v>
       </c>
     </row>
     <row r="85" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="str">
-        <f>G85&amp;"_"&amp;H85&amp;"_"&amp;F85</f>
+        <f t="shared" si="4"/>
         <v>34_1_Slight</v>
       </c>
       <c r="B85" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C85" s="2" t="str">
-        <f>H85&amp;"-"&amp;D85</f>
+        <f t="shared" si="5"/>
         <v>1-微</v>
       </c>
       <c r="D85" s="2" t="s">
@@ -4119,26 +4162,26 @@
       <c r="F85" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G85" s="2">
+      <c r="G85" s="9">
         <v>34</v>
       </c>
-      <c r="H85" s="2">
+      <c r="H85" s="9">
         <v>1</v>
       </c>
-      <c r="I85" s="2">
+      <c r="I85" s="9">
         <v>84</v>
       </c>
     </row>
     <row r="86" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="str">
-        <f>G86&amp;"_"&amp;H86&amp;"_"&amp;F86</f>
+        <f t="shared" si="4"/>
         <v>34_2_Strong</v>
       </c>
       <c r="B86" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C86" s="2" t="str">
-        <f>H86&amp;"-"&amp;D86</f>
+        <f t="shared" si="5"/>
         <v>2-强</v>
       </c>
       <c r="D86" s="2" t="s">
@@ -4150,26 +4193,26 @@
       <c r="F86" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="G86" s="2">
+      <c r="G86" s="9">
         <v>34</v>
       </c>
-      <c r="H86" s="2">
+      <c r="H86" s="9">
         <v>2</v>
       </c>
-      <c r="I86" s="2">
+      <c r="I86" s="9">
         <v>85</v>
       </c>
     </row>
     <row r="87" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="str">
-        <f>G87&amp;"_"&amp;H87&amp;"_"&amp;F87</f>
+        <f t="shared" si="4"/>
         <v>35_2_Excellent</v>
       </c>
       <c r="B87" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C87" s="2" t="str">
-        <f>H87&amp;"-"&amp;D87</f>
+        <f t="shared" si="5"/>
         <v>2-优</v>
       </c>
       <c r="D87" s="2" t="s">
@@ -4181,26 +4224,26 @@
       <c r="F87" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G87" s="2">
+      <c r="G87" s="9">
         <v>35</v>
       </c>
-      <c r="H87" s="2">
+      <c r="H87" s="9">
         <v>2</v>
       </c>
-      <c r="I87" s="2">
+      <c r="I87" s="9">
         <v>86</v>
       </c>
     </row>
     <row r="88" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="str">
-        <f>G88&amp;"_"&amp;H88&amp;"_"&amp;F88</f>
+        <f t="shared" si="4"/>
         <v>35_1_Good</v>
       </c>
       <c r="B88" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C88" s="2" t="str">
-        <f>H88&amp;"-"&amp;D88</f>
+        <f t="shared" si="5"/>
         <v>1-良</v>
       </c>
       <c r="D88" s="2" t="s">
@@ -4212,26 +4255,26 @@
       <c r="F88" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G88" s="2">
+      <c r="G88" s="9">
         <v>35</v>
       </c>
-      <c r="H88" s="2">
+      <c r="H88" s="9">
         <v>1</v>
       </c>
-      <c r="I88" s="2">
+      <c r="I88" s="9">
         <v>87</v>
       </c>
     </row>
     <row r="89" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="str">
-        <f>G89&amp;"_"&amp;H89&amp;"_"&amp;F89</f>
+        <f t="shared" si="4"/>
         <v>35_0_Fair</v>
       </c>
       <c r="B89" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C89" s="2" t="str">
-        <f>H89&amp;"-"&amp;D89</f>
+        <f t="shared" si="5"/>
         <v>0-中</v>
       </c>
       <c r="D89" s="2" t="s">
@@ -4243,26 +4286,26 @@
       <c r="F89" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G89" s="2">
+      <c r="G89" s="9">
         <v>35</v>
       </c>
-      <c r="H89" s="2">
+      <c r="H89" s="9">
         <v>0</v>
       </c>
-      <c r="I89" s="2">
+      <c r="I89" s="9">
         <v>88</v>
       </c>
     </row>
     <row r="90" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="str">
-        <f>G90&amp;"_"&amp;H90&amp;"_"&amp;F90</f>
+        <f t="shared" si="4"/>
         <v>35_-1_Poor</v>
       </c>
       <c r="B90" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C90" s="2" t="str">
-        <f>H90&amp;"-"&amp;D90</f>
+        <f t="shared" si="5"/>
         <v>-1-差</v>
       </c>
       <c r="D90" s="2" t="s">
@@ -4274,26 +4317,26 @@
       <c r="F90" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G90" s="2">
+      <c r="G90" s="9">
         <v>35</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="9">
         <v>-1</v>
       </c>
-      <c r="I90" s="2">
+      <c r="I90" s="9">
         <v>89</v>
       </c>
     </row>
     <row r="91" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="str">
-        <f>G91&amp;"_"&amp;H91&amp;"_"&amp;F91</f>
+        <f t="shared" si="4"/>
         <v>36_1_Lanceolate</v>
       </c>
       <c r="B91" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C91" s="2" t="str">
-        <f>H91&amp;"-"&amp;D91</f>
+        <f t="shared" si="5"/>
         <v>1-披针</v>
       </c>
       <c r="D91" s="2" t="s">
@@ -4305,26 +4348,26 @@
       <c r="F91" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="G91" s="2">
+      <c r="G91" s="9">
         <v>36</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="9">
         <v>1</v>
       </c>
-      <c r="I91" s="2">
+      <c r="I91" s="9">
         <v>90</v>
       </c>
     </row>
     <row r="92" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="str">
-        <f>G92&amp;"_"&amp;H92&amp;"_"&amp;F92</f>
+        <f t="shared" si="4"/>
         <v>36_2_Ovate</v>
       </c>
       <c r="B92" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C92" s="2" t="str">
-        <f>H92&amp;"-"&amp;D92</f>
+        <f t="shared" si="5"/>
         <v>2-卵圆</v>
       </c>
       <c r="D92" s="2" t="s">
@@ -4336,26 +4379,26 @@
       <c r="F92" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="G92" s="2">
+      <c r="G92" s="9">
         <v>36</v>
       </c>
-      <c r="H92" s="2">
+      <c r="H92" s="9">
         <v>2</v>
       </c>
-      <c r="I92" s="2">
+      <c r="I92" s="9">
         <v>91</v>
       </c>
     </row>
     <row r="93" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="str">
-        <f>G93&amp;"_"&amp;H93&amp;"_"&amp;F93</f>
+        <f t="shared" si="4"/>
         <v>36_3_Oval</v>
       </c>
       <c r="B93" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C93" s="2" t="str">
-        <f>H93&amp;"-"&amp;D93</f>
+        <f t="shared" si="5"/>
         <v>3-椭圆</v>
       </c>
       <c r="D93" s="2" t="s">
@@ -4367,26 +4410,26 @@
       <c r="F93" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="G93" s="2">
+      <c r="G93" s="9">
         <v>36</v>
       </c>
-      <c r="H93" s="2">
+      <c r="H93" s="9">
         <v>3</v>
       </c>
-      <c r="I93" s="2">
+      <c r="I93" s="9">
         <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="str">
-        <f>G94&amp;"_"&amp;H94&amp;"_"&amp;F94</f>
+        <f t="shared" si="4"/>
         <v>36_4_Round</v>
       </c>
       <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C94" s="2" t="str">
-        <f>H94&amp;"-"&amp;D94</f>
+        <f t="shared" si="5"/>
         <v>4-圆</v>
       </c>
       <c r="D94" s="2" t="s">
@@ -4398,26 +4441,26 @@
       <c r="F94" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G94" s="2">
+      <c r="G94" s="9">
         <v>36</v>
       </c>
-      <c r="H94" s="2">
+      <c r="H94" s="9">
         <v>4</v>
       </c>
-      <c r="I94" s="2">
+      <c r="I94" s="9">
         <v>93</v>
       </c>
     </row>
     <row r="95" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="str">
-        <f>G95&amp;"_"&amp;H95&amp;"_"&amp;F95</f>
+        <f t="shared" si="4"/>
         <v>36_99_Segregating</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C95" s="2" t="str">
-        <f>H95&amp;"-"&amp;D95</f>
+        <f t="shared" si="5"/>
         <v>99-分离</v>
       </c>
       <c r="D95" s="2" t="s">
@@ -4429,26 +4472,26 @@
       <c r="F95" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G95" s="2">
+      <c r="G95" s="9">
         <v>36</v>
       </c>
-      <c r="H95" s="2">
+      <c r="H95" s="9">
         <v>99</v>
       </c>
-      <c r="I95" s="2">
+      <c r="I95" s="9">
         <v>94</v>
       </c>
     </row>
     <row r="96" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="str">
-        <f>G96&amp;"_"&amp;H96&amp;"_"&amp;F96</f>
+        <f t="shared" si="4"/>
         <v>37_0_Immune</v>
       </c>
       <c r="B96" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C96" s="2" t="str">
-        <f>H96&amp;"-"&amp;D96</f>
+        <f t="shared" si="5"/>
         <v>0-免疫</v>
       </c>
       <c r="D96" s="2" t="s">
@@ -4460,26 +4503,26 @@
       <c r="F96" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G96" s="2">
+      <c r="G96" s="9">
         <v>37</v>
       </c>
-      <c r="H96" s="2">
+      <c r="H96" s="9">
         <v>0</v>
       </c>
-      <c r="I96" s="2">
+      <c r="I96" s="9">
         <v>95</v>
       </c>
     </row>
     <row r="97" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="str">
-        <f>G97&amp;"_"&amp;H97&amp;"_"&amp;F97</f>
+        <f t="shared" si="4"/>
         <v>37_1_Highly-resistant</v>
       </c>
       <c r="B97" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C97" s="2" t="str">
-        <f>H97&amp;"-"&amp;D97</f>
+        <f t="shared" si="5"/>
         <v>1-高抗</v>
       </c>
       <c r="D97" s="2" t="s">
@@ -4491,26 +4534,26 @@
       <c r="F97" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G97" s="2">
+      <c r="G97" s="9">
         <v>37</v>
       </c>
-      <c r="H97" s="2">
+      <c r="H97" s="9">
         <v>1</v>
       </c>
-      <c r="I97" s="2">
+      <c r="I97" s="9">
         <v>96</v>
       </c>
     </row>
     <row r="98" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="str">
-        <f>G98&amp;"_"&amp;H98&amp;"_"&amp;F98</f>
+        <f t="shared" ref="A98:A119" si="6">G98&amp;"_"&amp;H98&amp;"_"&amp;F98</f>
         <v>37_3_Resistant</v>
       </c>
       <c r="B98" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C98" s="2" t="str">
-        <f>H98&amp;"-"&amp;D98</f>
+        <f t="shared" ref="C98:C118" si="7">H98&amp;"-"&amp;D98</f>
         <v>3-抗</v>
       </c>
       <c r="D98" s="2" t="s">
@@ -4522,26 +4565,26 @@
       <c r="F98" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G98" s="2">
+      <c r="G98" s="9">
         <v>37</v>
       </c>
-      <c r="H98" s="2">
+      <c r="H98" s="9">
         <v>3</v>
       </c>
-      <c r="I98" s="2">
+      <c r="I98" s="9">
         <v>97</v>
       </c>
     </row>
     <row r="99" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="str">
-        <f>G99&amp;"_"&amp;H99&amp;"_"&amp;F99</f>
+        <f t="shared" si="6"/>
         <v>37_7_Susceptible</v>
       </c>
       <c r="B99" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C99" s="2" t="str">
-        <f>H99&amp;"-"&amp;D99</f>
+        <f t="shared" si="7"/>
         <v>7-感</v>
       </c>
       <c r="D99" s="2" t="s">
@@ -4553,26 +4596,26 @@
       <c r="F99" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G99" s="2">
+      <c r="G99" s="9">
         <v>37</v>
       </c>
-      <c r="H99" s="2">
+      <c r="H99" s="9">
         <v>7</v>
       </c>
-      <c r="I99" s="2">
+      <c r="I99" s="9">
         <v>98</v>
       </c>
     </row>
     <row r="100" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="str">
-        <f>G100&amp;"_"&amp;H100&amp;"_"&amp;F100</f>
+        <f t="shared" si="6"/>
         <v>37_9_Highly-susceptible</v>
       </c>
       <c r="B100" s="5" t="s">
         <v>142</v>
       </c>
       <c r="C100" s="2" t="str">
-        <f>H100&amp;"-"&amp;D100</f>
+        <f t="shared" si="7"/>
         <v>9-高感</v>
       </c>
       <c r="D100" s="2" t="s">
@@ -4584,26 +4627,26 @@
       <c r="F100" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G100" s="2">
+      <c r="G100" s="9">
         <v>37</v>
       </c>
-      <c r="H100" s="2">
+      <c r="H100" s="9">
         <v>9</v>
       </c>
-      <c r="I100" s="2">
+      <c r="I100" s="9">
         <v>99</v>
       </c>
     </row>
     <row r="101" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="str">
-        <f>G101&amp;"_"&amp;H101&amp;"_"&amp;F101</f>
+        <f t="shared" si="6"/>
         <v>38_0_Core-parent</v>
       </c>
       <c r="B101" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C101" s="2" t="str">
-        <f>H101&amp;"-"&amp;D101</f>
+        <f t="shared" si="7"/>
         <v>0-否</v>
       </c>
       <c r="D101" s="2" t="s">
@@ -4615,26 +4658,26 @@
       <c r="F101" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G101" s="2">
+      <c r="G101" s="9">
         <v>38</v>
       </c>
-      <c r="H101" s="2">
+      <c r="H101" s="9">
         <v>0</v>
       </c>
-      <c r="I101" s="2">
+      <c r="I101" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="102" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="str">
-        <f>G102&amp;"_"&amp;H102&amp;"_"&amp;F102</f>
+        <f t="shared" si="6"/>
         <v>38_1_Core-parent</v>
       </c>
       <c r="B102" s="5" t="s">
         <v>147</v>
       </c>
       <c r="C102" s="2" t="str">
-        <f>H102&amp;"-"&amp;D102</f>
+        <f t="shared" si="7"/>
         <v>1-是</v>
       </c>
       <c r="D102" s="2" t="s">
@@ -4646,26 +4689,26 @@
       <c r="F102" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="G102" s="2">
+      <c r="G102" s="9">
         <v>38</v>
       </c>
-      <c r="H102" s="2">
+      <c r="H102" s="9">
         <v>1</v>
       </c>
-      <c r="I102" s="2">
+      <c r="I102" s="9">
         <v>101</v>
       </c>
     </row>
     <row r="103" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="str">
-        <f>G103&amp;"_"&amp;H103&amp;"_"&amp;F103</f>
+        <f t="shared" si="6"/>
         <v>39_2_Excellent</v>
       </c>
       <c r="B103" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C103" s="2" t="str">
-        <f>H103&amp;"-"&amp;D103</f>
+        <f t="shared" si="7"/>
         <v>2-优</v>
       </c>
       <c r="D103" s="2" t="s">
@@ -4677,26 +4720,26 @@
       <c r="F103" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G103" s="2">
+      <c r="G103" s="9">
         <v>39</v>
       </c>
-      <c r="H103" s="2">
+      <c r="H103" s="9">
         <v>2</v>
       </c>
-      <c r="I103" s="2">
+      <c r="I103" s="9">
         <v>102</v>
       </c>
     </row>
     <row r="104" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="str">
-        <f>G104&amp;"_"&amp;H104&amp;"_"&amp;F104</f>
+        <f t="shared" si="6"/>
         <v>39_1_Good</v>
       </c>
       <c r="B104" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C104" s="2" t="str">
-        <f>H104&amp;"-"&amp;D104</f>
+        <f t="shared" si="7"/>
         <v>1-良</v>
       </c>
       <c r="D104" s="2" t="s">
@@ -4708,26 +4751,26 @@
       <c r="F104" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G104" s="2">
+      <c r="G104" s="9">
         <v>39</v>
       </c>
-      <c r="H104" s="2">
+      <c r="H104" s="9">
         <v>1</v>
       </c>
-      <c r="I104" s="2">
+      <c r="I104" s="9">
         <v>103</v>
       </c>
     </row>
     <row r="105" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="str">
-        <f>G105&amp;"_"&amp;H105&amp;"_"&amp;F105</f>
+        <f t="shared" si="6"/>
         <v>39_0_Fair</v>
       </c>
       <c r="B105" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C105" s="2" t="str">
-        <f>H105&amp;"-"&amp;D105</f>
+        <f t="shared" si="7"/>
         <v>0-中</v>
       </c>
       <c r="D105" s="2" t="s">
@@ -4739,26 +4782,26 @@
       <c r="F105" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G105" s="2">
+      <c r="G105" s="9">
         <v>39</v>
       </c>
-      <c r="H105" s="2">
+      <c r="H105" s="9">
         <v>0</v>
       </c>
-      <c r="I105" s="2">
+      <c r="I105" s="9">
         <v>104</v>
       </c>
     </row>
     <row r="106" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="str">
-        <f>G106&amp;"_"&amp;H106&amp;"_"&amp;F106</f>
+        <f t="shared" si="6"/>
         <v>39_-1_Poor</v>
       </c>
       <c r="B106" s="5" t="s">
         <v>149</v>
       </c>
       <c r="C106" s="2" t="str">
-        <f>H106&amp;"-"&amp;D106</f>
+        <f t="shared" si="7"/>
         <v>-1-差</v>
       </c>
       <c r="D106" s="2" t="s">
@@ -4770,26 +4813,26 @@
       <c r="F106" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G106" s="2">
+      <c r="G106" s="9">
         <v>39</v>
       </c>
-      <c r="H106" s="2">
+      <c r="H106" s="9">
         <v>-1</v>
       </c>
-      <c r="I106" s="2">
+      <c r="I106" s="9">
         <v>105</v>
       </c>
     </row>
     <row r="107" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="str">
-        <f>G107&amp;"_"&amp;H107&amp;"_"&amp;F107</f>
+        <f t="shared" si="6"/>
         <v>40_0_Immune</v>
       </c>
       <c r="B107" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C107" s="2" t="str">
-        <f>H107&amp;"-"&amp;D107</f>
+        <f t="shared" si="7"/>
         <v>0-免疫</v>
       </c>
       <c r="D107" s="2" t="s">
@@ -4801,26 +4844,26 @@
       <c r="F107" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G107" s="2">
+      <c r="G107" s="9">
         <v>40</v>
       </c>
-      <c r="H107" s="2">
+      <c r="H107" s="9">
         <v>0</v>
       </c>
-      <c r="I107" s="2">
+      <c r="I107" s="9">
         <v>106</v>
       </c>
     </row>
     <row r="108" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="str">
-        <f>G108&amp;"_"&amp;H108&amp;"_"&amp;F108</f>
+        <f t="shared" si="6"/>
         <v>40_1_Highly-resistant</v>
       </c>
       <c r="B108" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C108" s="2" t="str">
-        <f>H108&amp;"-"&amp;D108</f>
+        <f t="shared" si="7"/>
         <v>1-高抗</v>
       </c>
       <c r="D108" s="2" t="s">
@@ -4832,26 +4875,26 @@
       <c r="F108" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G108" s="2">
+      <c r="G108" s="9">
         <v>40</v>
       </c>
-      <c r="H108" s="2">
+      <c r="H108" s="9">
         <v>1</v>
       </c>
-      <c r="I108" s="2">
+      <c r="I108" s="9">
         <v>107</v>
       </c>
     </row>
     <row r="109" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="str">
-        <f>G109&amp;"_"&amp;H109&amp;"_"&amp;F109</f>
+        <f t="shared" si="6"/>
         <v>40_3_Resistant</v>
       </c>
       <c r="B109" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C109" s="2" t="str">
-        <f>H109&amp;"-"&amp;D109</f>
+        <f t="shared" si="7"/>
         <v>3-抗</v>
       </c>
       <c r="D109" s="2" t="s">
@@ -4863,26 +4906,26 @@
       <c r="F109" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G109" s="2">
+      <c r="G109" s="9">
         <v>40</v>
       </c>
-      <c r="H109" s="2">
+      <c r="H109" s="9">
         <v>3</v>
       </c>
-      <c r="I109" s="2">
+      <c r="I109" s="9">
         <v>108</v>
       </c>
     </row>
     <row r="110" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="str">
-        <f>G110&amp;"_"&amp;H110&amp;"_"&amp;F110</f>
+        <f t="shared" si="6"/>
         <v>40_7_Susceptible</v>
       </c>
       <c r="B110" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C110" s="2" t="str">
-        <f>H110&amp;"-"&amp;D110</f>
+        <f t="shared" si="7"/>
         <v>7-感</v>
       </c>
       <c r="D110" s="2" t="s">
@@ -4894,26 +4937,26 @@
       <c r="F110" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G110" s="2">
+      <c r="G110" s="9">
         <v>40</v>
       </c>
-      <c r="H110" s="2">
+      <c r="H110" s="9">
         <v>7</v>
       </c>
-      <c r="I110" s="2">
+      <c r="I110" s="9">
         <v>109</v>
       </c>
     </row>
     <row r="111" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="str">
-        <f>G111&amp;"_"&amp;H111&amp;"_"&amp;F111</f>
+        <f t="shared" si="6"/>
         <v>40_9_Highly-susceptible</v>
       </c>
       <c r="B111" s="5" t="s">
         <v>151</v>
       </c>
       <c r="C111" s="2" t="str">
-        <f>H111&amp;"-"&amp;D111</f>
+        <f t="shared" si="7"/>
         <v>9-高感</v>
       </c>
       <c r="D111" s="2" t="s">
@@ -4925,26 +4968,26 @@
       <c r="F111" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G111" s="2">
+      <c r="G111" s="9">
         <v>40</v>
       </c>
-      <c r="H111" s="2">
+      <c r="H111" s="9">
         <v>9</v>
       </c>
-      <c r="I111" s="2">
+      <c r="I111" s="9">
         <v>110</v>
       </c>
     </row>
     <row r="112" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="str">
-        <f>G112&amp;"_"&amp;H112&amp;"_"&amp;F112</f>
+        <f t="shared" si="6"/>
         <v>41_0_Immune</v>
       </c>
       <c r="B112" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C112" s="2" t="str">
-        <f>H112&amp;"-"&amp;D112</f>
+        <f t="shared" si="7"/>
         <v>0-免疫</v>
       </c>
       <c r="D112" s="2" t="s">
@@ -4956,26 +4999,26 @@
       <c r="F112" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G112" s="2">
+      <c r="G112" s="9">
         <v>41</v>
       </c>
-      <c r="H112" s="2">
+      <c r="H112" s="9">
         <v>0</v>
       </c>
-      <c r="I112" s="2">
+      <c r="I112" s="9">
         <v>111</v>
       </c>
     </row>
     <row r="113" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="str">
-        <f>G113&amp;"_"&amp;H113&amp;"_"&amp;F113</f>
+        <f t="shared" si="6"/>
         <v>41_1_Highly-resistant</v>
       </c>
       <c r="B113" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C113" s="2" t="str">
-        <f>H113&amp;"-"&amp;D113</f>
+        <f t="shared" si="7"/>
         <v>1-高抗</v>
       </c>
       <c r="D113" s="2" t="s">
@@ -4987,26 +5030,26 @@
       <c r="F113" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G113" s="2">
+      <c r="G113" s="9">
         <v>41</v>
       </c>
-      <c r="H113" s="2">
+      <c r="H113" s="9">
         <v>1</v>
       </c>
-      <c r="I113" s="2">
+      <c r="I113" s="9">
         <v>112</v>
       </c>
     </row>
     <row r="114" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="str">
-        <f>G114&amp;"_"&amp;H114&amp;"_"&amp;F114</f>
+        <f t="shared" si="6"/>
         <v>41_3_Resistant</v>
       </c>
       <c r="B114" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C114" s="2" t="str">
-        <f>H114&amp;"-"&amp;D114</f>
+        <f t="shared" si="7"/>
         <v>3-抗</v>
       </c>
       <c r="D114" s="2" t="s">
@@ -5018,26 +5061,26 @@
       <c r="F114" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="G114" s="2">
+      <c r="G114" s="9">
         <v>41</v>
       </c>
-      <c r="H114" s="2">
+      <c r="H114" s="9">
         <v>3</v>
       </c>
-      <c r="I114" s="2">
+      <c r="I114" s="9">
         <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A115" s="2" t="str">
-        <f>G115&amp;"_"&amp;H115&amp;"_"&amp;F115</f>
+        <f t="shared" si="6"/>
         <v>41_7_Susceptible</v>
       </c>
       <c r="B115" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C115" s="2" t="str">
-        <f>H115&amp;"-"&amp;D115</f>
+        <f t="shared" si="7"/>
         <v>7-感</v>
       </c>
       <c r="D115" s="2" t="s">
@@ -5049,26 +5092,26 @@
       <c r="F115" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G115" s="2">
+      <c r="G115" s="9">
         <v>41</v>
       </c>
-      <c r="H115" s="2">
+      <c r="H115" s="9">
         <v>7</v>
       </c>
-      <c r="I115" s="2">
+      <c r="I115" s="9">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:9" s="3" customFormat="1" ht="20.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:9" s="3" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A116" s="2" t="str">
-        <f>G116&amp;"_"&amp;H116&amp;"_"&amp;F116</f>
+        <f t="shared" si="6"/>
         <v>41_9_Highly-susceptible</v>
       </c>
       <c r="B116" s="5" t="s">
         <v>153</v>
       </c>
       <c r="C116" s="2" t="str">
-        <f>H116&amp;"-"&amp;D116</f>
+        <f t="shared" si="7"/>
         <v>9-高感</v>
       </c>
       <c r="D116" s="5" t="s">
@@ -5080,14 +5123,107 @@
       <c r="F116" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G116" s="2">
+      <c r="G116" s="9">
         <v>41</v>
       </c>
-      <c r="H116" s="2">
+      <c r="H116" s="9">
         <v>9</v>
       </c>
-      <c r="I116" s="2">
+      <c r="I116" s="9">
         <v>115</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A117" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>42_0_Early_aging</v>
+      </c>
+      <c r="B117" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C117" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>0-否</v>
+      </c>
+      <c r="D117" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="E117" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F117" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="G117" s="8">
+        <v>42</v>
+      </c>
+      <c r="H117" s="8">
+        <v>0</v>
+      </c>
+      <c r="I117" s="9">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A118" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>42_1_Early_aging</v>
+      </c>
+      <c r="B118" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C118" s="8" t="str">
+        <f t="shared" si="7"/>
+        <v>1-是</v>
+      </c>
+      <c r="D118" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="E118" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F118" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G118" s="8">
+        <v>42</v>
+      </c>
+      <c r="H118" s="8">
+        <v>1</v>
+      </c>
+      <c r="I118" s="9">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" ht="21" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A119" s="2" t="str">
+        <f t="shared" si="6"/>
+        <v>42_99_Early_aging</v>
+      </c>
+      <c r="B119" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="C119" s="8" t="str">
+        <f t="shared" ref="C119" si="8">H119&amp;"-"&amp;D119</f>
+        <v>99-分离</v>
+      </c>
+      <c r="D119" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="E119" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="F119" s="8" t="s">
+        <v>168</v>
+      </c>
+      <c r="G119" s="8">
+        <v>42</v>
+      </c>
+      <c r="H119" s="8">
+        <v>99</v>
+      </c>
+      <c r="I119" s="9">
+        <v>118</v>
       </c>
     </row>
   </sheetData>
